--- a/Other_workbooks/fiberVolleyCellList.xlsx
+++ b/Other_workbooks/fiberVolleyCellList.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -221,12 +221,30 @@
   <si>
     <t>2014_12_09_0003</t>
   </si>
+  <si>
+    <t>CH_141215_C</t>
+  </si>
+  <si>
+    <t>2014_12_31_0000</t>
+  </si>
+  <si>
+    <t>oChIEF</t>
+  </si>
+  <si>
+    <t>2014_12_31_0001</t>
+  </si>
+  <si>
+    <t>2014_12_31_0002</t>
+  </si>
+  <si>
+    <t>2014_12_31_0003</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -240,6 +258,20 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -277,10 +309,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,8 +365,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,20 +728,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK41"/>
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="14"/>
+    <col min="2" max="2" width="8.83203125" style="24"/>
     <col min="3" max="3" width="20.1640625" style="14" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="19" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="14"/>
+    <col min="5" max="5" width="19.33203125" style="19" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="29"/>
+    <col min="8" max="8" width="8.83203125" style="14"/>
     <col min="9" max="9" width="12" style="14" customWidth="1"/>
     <col min="10" max="10" width="38.6640625" style="19" customWidth="1"/>
     <col min="11" max="1025" width="8.83203125" style="13"/>
@@ -686,7 +753,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -698,10 +765,10 @@
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -718,7 +785,7 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -730,10 +797,10 @@
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="27">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="27">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1761,7 +1828,7 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1773,10 +1840,10 @@
       <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="27">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="27">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2804,7 +2871,7 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2816,10 +2883,10 @@
       <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="27">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -3847,7 +3914,7 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3859,10 +3926,10 @@
       <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="27">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -4890,7 +4957,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -4902,10 +4969,10 @@
       <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="27">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5933,7 +6000,7 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="21">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5945,10 +6012,10 @@
       <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="27">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="27">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6976,7 +7043,7 @@
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="22">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -6988,10 +7055,10 @@
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="28">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -8021,7 +8088,7 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="22">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -8033,10 +8100,10 @@
       <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="28">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="28">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -9066,7 +9133,7 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -9078,10 +9145,10 @@
       <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="28">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -10111,7 +10178,7 @@
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="22">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -10123,10 +10190,10 @@
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="28">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -11156,7 +11223,7 @@
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="22">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -11168,10 +11235,10 @@
       <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="28">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -12201,7 +12268,7 @@
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="22">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -12213,10 +12280,10 @@
       <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="28">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="28">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -13246,7 +13313,7 @@
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="23">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -13258,10 +13325,10 @@
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="25">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -14289,7 +14356,7 @@
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="23">
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -14301,10 +14368,10 @@
       <c r="E15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="25">
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="25">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -15332,7 +15399,7 @@
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="23">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -15344,10 +15411,10 @@
       <c r="E16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="25">
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="25">
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
@@ -16375,7 +16442,7 @@
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="23">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -16387,10 +16454,10 @@
       <c r="E17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="25">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="25">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
@@ -17418,7 +17485,7 @@
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="23">
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -17430,10 +17497,10 @@
       <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="25">
         <v>0</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="25">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
@@ -18461,7 +18528,7 @@
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="23">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -18473,10 +18540,10 @@
       <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="25">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="25">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -19504,7 +19571,7 @@
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="23">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -19516,10 +19583,10 @@
       <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="25">
         <v>0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="25">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -20547,7 +20614,7 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="21">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -20559,10 +20626,10 @@
       <c r="E21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="27">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="27">
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -21592,7 +21659,7 @@
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="21">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -21604,10 +21671,10 @@
       <c r="E22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="27">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="27">
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -22635,7 +22702,7 @@
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="21">
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -22647,10 +22714,10 @@
       <c r="E23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="27">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="27">
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -23678,7 +23745,7 @@
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="22">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -23690,10 +23757,10 @@
       <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="28">
         <v>0</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="28">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -24721,7 +24788,7 @@
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="22">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -24733,10 +24800,10 @@
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="28">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="28">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -25766,7 +25833,7 @@
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="22">
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -25778,10 +25845,10 @@
       <c r="E26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="28">
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="28">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -26809,7 +26876,7 @@
       <c r="A27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="22">
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -26821,10 +26888,10 @@
       <c r="E27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="28">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="28">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -27852,7 +27919,7 @@
       <c r="A28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="23">
         <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -27864,10 +27931,10 @@
       <c r="E28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="25">
         <v>1</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="25">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -28895,7 +28962,7 @@
       <c r="A29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="23">
         <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -28907,10 +28974,10 @@
       <c r="E29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="25">
         <v>1</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="25">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -29940,7 +30007,7 @@
       <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="23">
         <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -29952,10 +30019,10 @@
       <c r="E30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="25">
         <v>1</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="25">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -30983,7 +31050,7 @@
       <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -30995,10 +31062,10 @@
       <c r="E31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="25">
         <v>1</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="25">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -32026,7 +32093,7 @@
       <c r="A32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="21">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -32038,10 +32105,10 @@
       <c r="E32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="27">
         <v>1</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="27">
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -33069,7 +33136,7 @@
       <c r="A33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="21">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -33081,10 +33148,10 @@
       <c r="E33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="27">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="27">
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -34112,7 +34179,7 @@
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="21">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -34124,10 +34191,10 @@
       <c r="E34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="27">
         <v>1</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="27">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -35155,7 +35222,7 @@
       <c r="A35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="21">
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -35167,10 +35234,10 @@
       <c r="E35" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="27">
         <v>1</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="27">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -36198,7 +36265,7 @@
       <c r="A36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="21">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -36210,10 +36277,10 @@
       <c r="E36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="27">
         <v>1</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="27">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -37241,7 +37308,7 @@
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="21">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -37253,10 +37320,10 @@
       <c r="E37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="27">
         <v>1</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="27">
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -38284,7 +38351,7 @@
       <c r="A38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="22">
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -38296,10 +38363,10 @@
       <c r="E38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="28">
         <v>1</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="28">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -39327,7 +39394,7 @@
       <c r="A39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="22">
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -39339,10 +39406,10 @@
       <c r="E39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="28">
         <v>1</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="28">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -40370,7 +40437,7 @@
       <c r="A40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="22">
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -40382,10 +40449,10 @@
       <c r="E40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="28">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -41413,7 +41480,7 @@
       <c r="A41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="22">
         <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -41425,10 +41492,10 @@
       <c r="E41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="28">
         <v>1</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="28">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -42452,9 +42519,4181 @@
       <c r="AMJ41" s="6"/>
       <c r="AMK41" s="6"/>
     </row>
+    <row r="42" spans="1:1025" s="12" customFormat="1">
+      <c r="A42" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="25">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="25">
+        <v>1</v>
+      </c>
+      <c r="G42" s="25">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="10"/>
+      <c r="BA42" s="10"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="10"/>
+      <c r="BF42" s="10"/>
+      <c r="BG42" s="10"/>
+      <c r="BH42" s="10"/>
+      <c r="BI42" s="10"/>
+      <c r="BJ42" s="10"/>
+      <c r="BK42" s="10"/>
+      <c r="BL42" s="10"/>
+      <c r="BM42" s="10"/>
+      <c r="BN42" s="10"/>
+      <c r="BO42" s="10"/>
+      <c r="BP42" s="10"/>
+      <c r="BQ42" s="10"/>
+      <c r="BR42" s="10"/>
+      <c r="BS42" s="10"/>
+      <c r="BT42" s="10"/>
+      <c r="BU42" s="10"/>
+      <c r="BV42" s="10"/>
+      <c r="BW42" s="10"/>
+      <c r="BX42" s="10"/>
+      <c r="BY42" s="10"/>
+      <c r="BZ42" s="10"/>
+      <c r="CA42" s="10"/>
+      <c r="CB42" s="10"/>
+      <c r="CC42" s="10"/>
+      <c r="CD42" s="10"/>
+      <c r="CE42" s="10"/>
+      <c r="CF42" s="10"/>
+      <c r="CG42" s="10"/>
+      <c r="CH42" s="10"/>
+      <c r="CI42" s="10"/>
+      <c r="CJ42" s="10"/>
+      <c r="CK42" s="10"/>
+      <c r="CL42" s="10"/>
+      <c r="CM42" s="10"/>
+      <c r="CN42" s="10"/>
+      <c r="CO42" s="10"/>
+      <c r="CP42" s="10"/>
+      <c r="CQ42" s="10"/>
+      <c r="CR42" s="10"/>
+      <c r="CS42" s="10"/>
+      <c r="CT42" s="10"/>
+      <c r="CU42" s="10"/>
+      <c r="CV42" s="10"/>
+      <c r="CW42" s="10"/>
+      <c r="CX42" s="10"/>
+      <c r="CY42" s="10"/>
+      <c r="CZ42" s="10"/>
+      <c r="DA42" s="10"/>
+      <c r="DB42" s="10"/>
+      <c r="DC42" s="10"/>
+      <c r="DD42" s="10"/>
+      <c r="DE42" s="10"/>
+      <c r="DF42" s="10"/>
+      <c r="DG42" s="10"/>
+      <c r="DH42" s="10"/>
+      <c r="DI42" s="10"/>
+      <c r="DJ42" s="10"/>
+      <c r="DK42" s="10"/>
+      <c r="DL42" s="10"/>
+      <c r="DM42" s="10"/>
+      <c r="DN42" s="10"/>
+      <c r="DO42" s="10"/>
+      <c r="DP42" s="10"/>
+      <c r="DQ42" s="10"/>
+      <c r="DR42" s="10"/>
+      <c r="DS42" s="10"/>
+      <c r="DT42" s="10"/>
+      <c r="DU42" s="10"/>
+      <c r="DV42" s="10"/>
+      <c r="DW42" s="10"/>
+      <c r="DX42" s="10"/>
+      <c r="DY42" s="10"/>
+      <c r="DZ42" s="10"/>
+      <c r="EA42" s="10"/>
+      <c r="EB42" s="10"/>
+      <c r="EC42" s="10"/>
+      <c r="ED42" s="10"/>
+      <c r="EE42" s="10"/>
+      <c r="EF42" s="10"/>
+      <c r="EG42" s="10"/>
+      <c r="EH42" s="10"/>
+      <c r="EI42" s="10"/>
+      <c r="EJ42" s="10"/>
+      <c r="EK42" s="10"/>
+      <c r="EL42" s="10"/>
+      <c r="EM42" s="10"/>
+      <c r="EN42" s="10"/>
+      <c r="EO42" s="10"/>
+      <c r="EP42" s="10"/>
+      <c r="EQ42" s="10"/>
+      <c r="ER42" s="10"/>
+      <c r="ES42" s="10"/>
+      <c r="ET42" s="10"/>
+      <c r="EU42" s="10"/>
+      <c r="EV42" s="10"/>
+      <c r="EW42" s="10"/>
+      <c r="EX42" s="10"/>
+      <c r="EY42" s="10"/>
+      <c r="EZ42" s="10"/>
+      <c r="FA42" s="10"/>
+      <c r="FB42" s="10"/>
+      <c r="FC42" s="10"/>
+      <c r="FD42" s="10"/>
+      <c r="FE42" s="10"/>
+      <c r="FF42" s="10"/>
+      <c r="FG42" s="10"/>
+      <c r="FH42" s="10"/>
+      <c r="FI42" s="10"/>
+      <c r="FJ42" s="10"/>
+      <c r="FK42" s="10"/>
+      <c r="FL42" s="10"/>
+      <c r="FM42" s="10"/>
+      <c r="FN42" s="10"/>
+      <c r="FO42" s="10"/>
+      <c r="FP42" s="10"/>
+      <c r="FQ42" s="10"/>
+      <c r="FR42" s="10"/>
+      <c r="FS42" s="10"/>
+      <c r="FT42" s="10"/>
+      <c r="FU42" s="10"/>
+      <c r="FV42" s="10"/>
+      <c r="FW42" s="10"/>
+      <c r="FX42" s="10"/>
+      <c r="FY42" s="10"/>
+      <c r="FZ42" s="10"/>
+      <c r="GA42" s="10"/>
+      <c r="GB42" s="10"/>
+      <c r="GC42" s="10"/>
+      <c r="GD42" s="10"/>
+      <c r="GE42" s="10"/>
+      <c r="GF42" s="10"/>
+      <c r="GG42" s="10"/>
+      <c r="GH42" s="10"/>
+      <c r="GI42" s="10"/>
+      <c r="GJ42" s="10"/>
+      <c r="GK42" s="10"/>
+      <c r="GL42" s="10"/>
+      <c r="GM42" s="10"/>
+      <c r="GN42" s="10"/>
+      <c r="GO42" s="10"/>
+      <c r="GP42" s="10"/>
+      <c r="GQ42" s="10"/>
+      <c r="GR42" s="10"/>
+      <c r="GS42" s="10"/>
+      <c r="GT42" s="10"/>
+      <c r="GU42" s="10"/>
+      <c r="GV42" s="10"/>
+      <c r="GW42" s="10"/>
+      <c r="GX42" s="10"/>
+      <c r="GY42" s="10"/>
+      <c r="GZ42" s="10"/>
+      <c r="HA42" s="10"/>
+      <c r="HB42" s="10"/>
+      <c r="HC42" s="10"/>
+      <c r="HD42" s="10"/>
+      <c r="HE42" s="10"/>
+      <c r="HF42" s="10"/>
+      <c r="HG42" s="10"/>
+      <c r="HH42" s="10"/>
+      <c r="HI42" s="10"/>
+      <c r="HJ42" s="10"/>
+      <c r="HK42" s="10"/>
+      <c r="HL42" s="10"/>
+      <c r="HM42" s="10"/>
+      <c r="HN42" s="10"/>
+      <c r="HO42" s="10"/>
+      <c r="HP42" s="10"/>
+      <c r="HQ42" s="10"/>
+      <c r="HR42" s="10"/>
+      <c r="HS42" s="10"/>
+      <c r="HT42" s="10"/>
+      <c r="HU42" s="10"/>
+      <c r="HV42" s="10"/>
+      <c r="HW42" s="10"/>
+      <c r="HX42" s="10"/>
+      <c r="HY42" s="10"/>
+      <c r="HZ42" s="10"/>
+      <c r="IA42" s="10"/>
+      <c r="IB42" s="10"/>
+      <c r="IC42" s="10"/>
+      <c r="ID42" s="10"/>
+      <c r="IE42" s="10"/>
+      <c r="IF42" s="10"/>
+      <c r="IG42" s="10"/>
+      <c r="IH42" s="10"/>
+      <c r="II42" s="10"/>
+      <c r="IJ42" s="10"/>
+      <c r="IK42" s="10"/>
+      <c r="IL42" s="10"/>
+      <c r="IM42" s="10"/>
+      <c r="IN42" s="10"/>
+      <c r="IO42" s="10"/>
+      <c r="IP42" s="10"/>
+      <c r="IQ42" s="10"/>
+      <c r="IR42" s="10"/>
+      <c r="IS42" s="10"/>
+      <c r="IT42" s="10"/>
+      <c r="IU42" s="10"/>
+      <c r="IV42" s="10"/>
+      <c r="IW42" s="10"/>
+      <c r="IX42" s="10"/>
+      <c r="IY42" s="10"/>
+      <c r="IZ42" s="10"/>
+      <c r="JA42" s="10"/>
+      <c r="JB42" s="10"/>
+      <c r="JC42" s="10"/>
+      <c r="JD42" s="10"/>
+      <c r="JE42" s="10"/>
+      <c r="JF42" s="10"/>
+      <c r="JG42" s="10"/>
+      <c r="JH42" s="10"/>
+      <c r="JI42" s="10"/>
+      <c r="JJ42" s="10"/>
+      <c r="JK42" s="10"/>
+      <c r="JL42" s="10"/>
+      <c r="JM42" s="10"/>
+      <c r="JN42" s="10"/>
+      <c r="JO42" s="10"/>
+      <c r="JP42" s="10"/>
+      <c r="JQ42" s="10"/>
+      <c r="JR42" s="10"/>
+      <c r="JS42" s="10"/>
+      <c r="JT42" s="10"/>
+      <c r="JU42" s="10"/>
+      <c r="JV42" s="10"/>
+      <c r="JW42" s="10"/>
+      <c r="JX42" s="10"/>
+      <c r="JY42" s="10"/>
+      <c r="JZ42" s="10"/>
+      <c r="KA42" s="10"/>
+      <c r="KB42" s="10"/>
+      <c r="KC42" s="10"/>
+      <c r="KD42" s="10"/>
+      <c r="KE42" s="10"/>
+      <c r="KF42" s="10"/>
+      <c r="KG42" s="10"/>
+      <c r="KH42" s="10"/>
+      <c r="KI42" s="10"/>
+      <c r="KJ42" s="10"/>
+      <c r="KK42" s="10"/>
+      <c r="KL42" s="10"/>
+      <c r="KM42" s="10"/>
+      <c r="KN42" s="10"/>
+      <c r="KO42" s="10"/>
+      <c r="KP42" s="10"/>
+      <c r="KQ42" s="10"/>
+      <c r="KR42" s="10"/>
+      <c r="KS42" s="10"/>
+      <c r="KT42" s="10"/>
+      <c r="KU42" s="10"/>
+      <c r="KV42" s="10"/>
+      <c r="KW42" s="10"/>
+      <c r="KX42" s="10"/>
+      <c r="KY42" s="10"/>
+      <c r="KZ42" s="10"/>
+      <c r="LA42" s="10"/>
+      <c r="LB42" s="10"/>
+      <c r="LC42" s="10"/>
+      <c r="LD42" s="10"/>
+      <c r="LE42" s="10"/>
+      <c r="LF42" s="10"/>
+      <c r="LG42" s="10"/>
+      <c r="LH42" s="10"/>
+      <c r="LI42" s="10"/>
+      <c r="LJ42" s="10"/>
+      <c r="LK42" s="10"/>
+      <c r="LL42" s="10"/>
+      <c r="LM42" s="10"/>
+      <c r="LN42" s="10"/>
+      <c r="LO42" s="10"/>
+      <c r="LP42" s="10"/>
+      <c r="LQ42" s="10"/>
+      <c r="LR42" s="10"/>
+      <c r="LS42" s="10"/>
+      <c r="LT42" s="10"/>
+      <c r="LU42" s="10"/>
+      <c r="LV42" s="10"/>
+      <c r="LW42" s="10"/>
+      <c r="LX42" s="10"/>
+      <c r="LY42" s="10"/>
+      <c r="LZ42" s="10"/>
+      <c r="MA42" s="10"/>
+      <c r="MB42" s="10"/>
+      <c r="MC42" s="10"/>
+      <c r="MD42" s="10"/>
+      <c r="ME42" s="10"/>
+      <c r="MF42" s="10"/>
+      <c r="MG42" s="10"/>
+      <c r="MH42" s="10"/>
+      <c r="MI42" s="10"/>
+      <c r="MJ42" s="10"/>
+      <c r="MK42" s="10"/>
+      <c r="ML42" s="10"/>
+      <c r="MM42" s="10"/>
+      <c r="MN42" s="10"/>
+      <c r="MO42" s="10"/>
+      <c r="MP42" s="10"/>
+      <c r="MQ42" s="10"/>
+      <c r="MR42" s="10"/>
+      <c r="MS42" s="10"/>
+      <c r="MT42" s="10"/>
+      <c r="MU42" s="10"/>
+      <c r="MV42" s="10"/>
+      <c r="MW42" s="10"/>
+      <c r="MX42" s="10"/>
+      <c r="MY42" s="10"/>
+      <c r="MZ42" s="10"/>
+      <c r="NA42" s="10"/>
+      <c r="NB42" s="10"/>
+      <c r="NC42" s="10"/>
+      <c r="ND42" s="10"/>
+      <c r="NE42" s="10"/>
+      <c r="NF42" s="10"/>
+      <c r="NG42" s="10"/>
+      <c r="NH42" s="10"/>
+      <c r="NI42" s="10"/>
+      <c r="NJ42" s="10"/>
+      <c r="NK42" s="10"/>
+      <c r="NL42" s="10"/>
+      <c r="NM42" s="10"/>
+      <c r="NN42" s="10"/>
+      <c r="NO42" s="10"/>
+      <c r="NP42" s="10"/>
+      <c r="NQ42" s="10"/>
+      <c r="NR42" s="10"/>
+      <c r="NS42" s="10"/>
+      <c r="NT42" s="10"/>
+      <c r="NU42" s="10"/>
+      <c r="NV42" s="10"/>
+      <c r="NW42" s="10"/>
+      <c r="NX42" s="10"/>
+      <c r="NY42" s="10"/>
+      <c r="NZ42" s="10"/>
+      <c r="OA42" s="10"/>
+      <c r="OB42" s="10"/>
+      <c r="OC42" s="10"/>
+      <c r="OD42" s="10"/>
+      <c r="OE42" s="10"/>
+      <c r="OF42" s="10"/>
+      <c r="OG42" s="10"/>
+      <c r="OH42" s="10"/>
+      <c r="OI42" s="10"/>
+      <c r="OJ42" s="10"/>
+      <c r="OK42" s="10"/>
+      <c r="OL42" s="10"/>
+      <c r="OM42" s="10"/>
+      <c r="ON42" s="10"/>
+      <c r="OO42" s="10"/>
+      <c r="OP42" s="10"/>
+      <c r="OQ42" s="10"/>
+      <c r="OR42" s="10"/>
+      <c r="OS42" s="10"/>
+      <c r="OT42" s="10"/>
+      <c r="OU42" s="10"/>
+      <c r="OV42" s="10"/>
+      <c r="OW42" s="10"/>
+      <c r="OX42" s="10"/>
+      <c r="OY42" s="10"/>
+      <c r="OZ42" s="10"/>
+      <c r="PA42" s="10"/>
+      <c r="PB42" s="10"/>
+      <c r="PC42" s="10"/>
+      <c r="PD42" s="10"/>
+      <c r="PE42" s="10"/>
+      <c r="PF42" s="10"/>
+      <c r="PG42" s="10"/>
+      <c r="PH42" s="10"/>
+      <c r="PI42" s="10"/>
+      <c r="PJ42" s="10"/>
+      <c r="PK42" s="10"/>
+      <c r="PL42" s="10"/>
+      <c r="PM42" s="10"/>
+      <c r="PN42" s="10"/>
+      <c r="PO42" s="10"/>
+      <c r="PP42" s="10"/>
+      <c r="PQ42" s="10"/>
+      <c r="PR42" s="10"/>
+      <c r="PS42" s="10"/>
+      <c r="PT42" s="10"/>
+      <c r="PU42" s="10"/>
+      <c r="PV42" s="10"/>
+      <c r="PW42" s="10"/>
+      <c r="PX42" s="10"/>
+      <c r="PY42" s="10"/>
+      <c r="PZ42" s="10"/>
+      <c r="QA42" s="10"/>
+      <c r="QB42" s="10"/>
+      <c r="QC42" s="10"/>
+      <c r="QD42" s="10"/>
+      <c r="QE42" s="10"/>
+      <c r="QF42" s="10"/>
+      <c r="QG42" s="10"/>
+      <c r="QH42" s="10"/>
+      <c r="QI42" s="10"/>
+      <c r="QJ42" s="10"/>
+      <c r="QK42" s="10"/>
+      <c r="QL42" s="10"/>
+      <c r="QM42" s="10"/>
+      <c r="QN42" s="10"/>
+      <c r="QO42" s="10"/>
+      <c r="QP42" s="10"/>
+      <c r="QQ42" s="10"/>
+      <c r="QR42" s="10"/>
+      <c r="QS42" s="10"/>
+      <c r="QT42" s="10"/>
+      <c r="QU42" s="10"/>
+      <c r="QV42" s="10"/>
+      <c r="QW42" s="10"/>
+      <c r="QX42" s="10"/>
+      <c r="QY42" s="10"/>
+      <c r="QZ42" s="10"/>
+      <c r="RA42" s="10"/>
+      <c r="RB42" s="10"/>
+      <c r="RC42" s="10"/>
+      <c r="RD42" s="10"/>
+      <c r="RE42" s="10"/>
+      <c r="RF42" s="10"/>
+      <c r="RG42" s="10"/>
+      <c r="RH42" s="10"/>
+      <c r="RI42" s="10"/>
+      <c r="RJ42" s="10"/>
+      <c r="RK42" s="10"/>
+      <c r="RL42" s="10"/>
+      <c r="RM42" s="10"/>
+      <c r="RN42" s="10"/>
+      <c r="RO42" s="10"/>
+      <c r="RP42" s="10"/>
+      <c r="RQ42" s="10"/>
+      <c r="RR42" s="10"/>
+      <c r="RS42" s="10"/>
+      <c r="RT42" s="10"/>
+      <c r="RU42" s="10"/>
+      <c r="RV42" s="10"/>
+      <c r="RW42" s="10"/>
+      <c r="RX42" s="10"/>
+      <c r="RY42" s="10"/>
+      <c r="RZ42" s="10"/>
+      <c r="SA42" s="10"/>
+      <c r="SB42" s="10"/>
+      <c r="SC42" s="10"/>
+      <c r="SD42" s="10"/>
+      <c r="SE42" s="10"/>
+      <c r="SF42" s="10"/>
+      <c r="SG42" s="10"/>
+      <c r="SH42" s="10"/>
+      <c r="SI42" s="10"/>
+      <c r="SJ42" s="10"/>
+      <c r="SK42" s="10"/>
+      <c r="SL42" s="10"/>
+      <c r="SM42" s="10"/>
+      <c r="SN42" s="10"/>
+      <c r="SO42" s="10"/>
+      <c r="SP42" s="10"/>
+      <c r="SQ42" s="10"/>
+      <c r="SR42" s="10"/>
+      <c r="SS42" s="10"/>
+      <c r="ST42" s="10"/>
+      <c r="SU42" s="10"/>
+      <c r="SV42" s="10"/>
+      <c r="SW42" s="10"/>
+      <c r="SX42" s="10"/>
+      <c r="SY42" s="10"/>
+      <c r="SZ42" s="10"/>
+      <c r="TA42" s="10"/>
+      <c r="TB42" s="10"/>
+      <c r="TC42" s="10"/>
+      <c r="TD42" s="10"/>
+      <c r="TE42" s="10"/>
+      <c r="TF42" s="10"/>
+      <c r="TG42" s="10"/>
+      <c r="TH42" s="10"/>
+      <c r="TI42" s="10"/>
+      <c r="TJ42" s="10"/>
+      <c r="TK42" s="10"/>
+      <c r="TL42" s="10"/>
+      <c r="TM42" s="10"/>
+      <c r="TN42" s="10"/>
+      <c r="TO42" s="10"/>
+      <c r="TP42" s="10"/>
+      <c r="TQ42" s="10"/>
+      <c r="TR42" s="10"/>
+      <c r="TS42" s="10"/>
+      <c r="TT42" s="10"/>
+      <c r="TU42" s="10"/>
+      <c r="TV42" s="10"/>
+      <c r="TW42" s="10"/>
+      <c r="TX42" s="10"/>
+      <c r="TY42" s="10"/>
+      <c r="TZ42" s="10"/>
+      <c r="UA42" s="10"/>
+      <c r="UB42" s="10"/>
+      <c r="UC42" s="10"/>
+      <c r="UD42" s="10"/>
+      <c r="UE42" s="10"/>
+      <c r="UF42" s="10"/>
+      <c r="UG42" s="10"/>
+      <c r="UH42" s="10"/>
+      <c r="UI42" s="10"/>
+      <c r="UJ42" s="10"/>
+      <c r="UK42" s="10"/>
+      <c r="UL42" s="10"/>
+      <c r="UM42" s="10"/>
+      <c r="UN42" s="10"/>
+      <c r="UO42" s="10"/>
+      <c r="UP42" s="10"/>
+      <c r="UQ42" s="10"/>
+      <c r="UR42" s="10"/>
+      <c r="US42" s="10"/>
+      <c r="UT42" s="10"/>
+      <c r="UU42" s="10"/>
+      <c r="UV42" s="10"/>
+      <c r="UW42" s="10"/>
+      <c r="UX42" s="10"/>
+      <c r="UY42" s="10"/>
+      <c r="UZ42" s="10"/>
+      <c r="VA42" s="10"/>
+      <c r="VB42" s="10"/>
+      <c r="VC42" s="10"/>
+      <c r="VD42" s="10"/>
+      <c r="VE42" s="10"/>
+      <c r="VF42" s="10"/>
+      <c r="VG42" s="10"/>
+      <c r="VH42" s="10"/>
+      <c r="VI42" s="10"/>
+      <c r="VJ42" s="10"/>
+      <c r="VK42" s="10"/>
+      <c r="VL42" s="10"/>
+      <c r="VM42" s="10"/>
+      <c r="VN42" s="10"/>
+      <c r="VO42" s="10"/>
+      <c r="VP42" s="10"/>
+      <c r="VQ42" s="10"/>
+      <c r="VR42" s="10"/>
+      <c r="VS42" s="10"/>
+      <c r="VT42" s="10"/>
+      <c r="VU42" s="10"/>
+      <c r="VV42" s="10"/>
+      <c r="VW42" s="10"/>
+      <c r="VX42" s="10"/>
+      <c r="VY42" s="10"/>
+      <c r="VZ42" s="10"/>
+      <c r="WA42" s="10"/>
+      <c r="WB42" s="10"/>
+      <c r="WC42" s="10"/>
+      <c r="WD42" s="10"/>
+      <c r="WE42" s="10"/>
+      <c r="WF42" s="10"/>
+      <c r="WG42" s="10"/>
+      <c r="WH42" s="10"/>
+      <c r="WI42" s="10"/>
+      <c r="WJ42" s="10"/>
+      <c r="WK42" s="10"/>
+      <c r="WL42" s="10"/>
+      <c r="WM42" s="10"/>
+      <c r="WN42" s="10"/>
+      <c r="WO42" s="10"/>
+      <c r="WP42" s="10"/>
+      <c r="WQ42" s="10"/>
+      <c r="WR42" s="10"/>
+      <c r="WS42" s="10"/>
+      <c r="WT42" s="10"/>
+      <c r="WU42" s="10"/>
+      <c r="WV42" s="10"/>
+      <c r="WW42" s="10"/>
+      <c r="WX42" s="10"/>
+      <c r="WY42" s="10"/>
+      <c r="WZ42" s="10"/>
+      <c r="XA42" s="10"/>
+      <c r="XB42" s="10"/>
+      <c r="XC42" s="10"/>
+      <c r="XD42" s="10"/>
+      <c r="XE42" s="10"/>
+      <c r="XF42" s="10"/>
+      <c r="XG42" s="10"/>
+      <c r="XH42" s="10"/>
+      <c r="XI42" s="10"/>
+      <c r="XJ42" s="10"/>
+      <c r="XK42" s="10"/>
+      <c r="XL42" s="10"/>
+      <c r="XM42" s="10"/>
+      <c r="XN42" s="10"/>
+      <c r="XO42" s="10"/>
+      <c r="XP42" s="10"/>
+      <c r="XQ42" s="10"/>
+      <c r="XR42" s="10"/>
+      <c r="XS42" s="10"/>
+      <c r="XT42" s="10"/>
+      <c r="XU42" s="10"/>
+      <c r="XV42" s="10"/>
+      <c r="XW42" s="10"/>
+      <c r="XX42" s="10"/>
+      <c r="XY42" s="10"/>
+      <c r="XZ42" s="10"/>
+      <c r="YA42" s="10"/>
+      <c r="YB42" s="10"/>
+      <c r="YC42" s="10"/>
+      <c r="YD42" s="10"/>
+      <c r="YE42" s="10"/>
+      <c r="YF42" s="10"/>
+      <c r="YG42" s="10"/>
+      <c r="YH42" s="10"/>
+      <c r="YI42" s="10"/>
+      <c r="YJ42" s="10"/>
+      <c r="YK42" s="10"/>
+      <c r="YL42" s="10"/>
+      <c r="YM42" s="10"/>
+      <c r="YN42" s="10"/>
+      <c r="YO42" s="10"/>
+      <c r="YP42" s="10"/>
+      <c r="YQ42" s="10"/>
+      <c r="YR42" s="10"/>
+      <c r="YS42" s="10"/>
+      <c r="YT42" s="10"/>
+      <c r="YU42" s="10"/>
+      <c r="YV42" s="10"/>
+      <c r="YW42" s="10"/>
+      <c r="YX42" s="10"/>
+      <c r="YY42" s="10"/>
+      <c r="YZ42" s="10"/>
+      <c r="ZA42" s="10"/>
+      <c r="ZB42" s="10"/>
+      <c r="ZC42" s="10"/>
+      <c r="ZD42" s="10"/>
+      <c r="ZE42" s="10"/>
+      <c r="ZF42" s="10"/>
+      <c r="ZG42" s="10"/>
+      <c r="ZH42" s="10"/>
+      <c r="ZI42" s="10"/>
+      <c r="ZJ42" s="10"/>
+      <c r="ZK42" s="10"/>
+      <c r="ZL42" s="10"/>
+      <c r="ZM42" s="10"/>
+      <c r="ZN42" s="10"/>
+      <c r="ZO42" s="10"/>
+      <c r="ZP42" s="10"/>
+      <c r="ZQ42" s="10"/>
+      <c r="ZR42" s="10"/>
+      <c r="ZS42" s="10"/>
+      <c r="ZT42" s="10"/>
+      <c r="ZU42" s="10"/>
+      <c r="ZV42" s="10"/>
+      <c r="ZW42" s="10"/>
+      <c r="ZX42" s="10"/>
+      <c r="ZY42" s="10"/>
+      <c r="ZZ42" s="10"/>
+      <c r="AAA42" s="10"/>
+      <c r="AAB42" s="10"/>
+      <c r="AAC42" s="10"/>
+      <c r="AAD42" s="10"/>
+      <c r="AAE42" s="10"/>
+      <c r="AAF42" s="10"/>
+      <c r="AAG42" s="10"/>
+      <c r="AAH42" s="10"/>
+      <c r="AAI42" s="10"/>
+      <c r="AAJ42" s="10"/>
+      <c r="AAK42" s="10"/>
+      <c r="AAL42" s="10"/>
+      <c r="AAM42" s="10"/>
+      <c r="AAN42" s="10"/>
+      <c r="AAO42" s="10"/>
+      <c r="AAP42" s="10"/>
+      <c r="AAQ42" s="10"/>
+      <c r="AAR42" s="10"/>
+      <c r="AAS42" s="10"/>
+      <c r="AAT42" s="10"/>
+      <c r="AAU42" s="10"/>
+      <c r="AAV42" s="10"/>
+      <c r="AAW42" s="10"/>
+      <c r="AAX42" s="10"/>
+      <c r="AAY42" s="10"/>
+      <c r="AAZ42" s="10"/>
+      <c r="ABA42" s="10"/>
+      <c r="ABB42" s="10"/>
+      <c r="ABC42" s="10"/>
+      <c r="ABD42" s="10"/>
+      <c r="ABE42" s="10"/>
+      <c r="ABF42" s="10"/>
+      <c r="ABG42" s="10"/>
+      <c r="ABH42" s="10"/>
+      <c r="ABI42" s="10"/>
+      <c r="ABJ42" s="10"/>
+      <c r="ABK42" s="10"/>
+      <c r="ABL42" s="10"/>
+      <c r="ABM42" s="10"/>
+      <c r="ABN42" s="10"/>
+      <c r="ABO42" s="10"/>
+      <c r="ABP42" s="10"/>
+      <c r="ABQ42" s="10"/>
+      <c r="ABR42" s="10"/>
+      <c r="ABS42" s="10"/>
+      <c r="ABT42" s="10"/>
+      <c r="ABU42" s="10"/>
+      <c r="ABV42" s="10"/>
+      <c r="ABW42" s="10"/>
+      <c r="ABX42" s="10"/>
+      <c r="ABY42" s="10"/>
+      <c r="ABZ42" s="10"/>
+      <c r="ACA42" s="10"/>
+      <c r="ACB42" s="10"/>
+      <c r="ACC42" s="10"/>
+      <c r="ACD42" s="10"/>
+      <c r="ACE42" s="10"/>
+      <c r="ACF42" s="10"/>
+      <c r="ACG42" s="10"/>
+      <c r="ACH42" s="10"/>
+      <c r="ACI42" s="10"/>
+      <c r="ACJ42" s="10"/>
+      <c r="ACK42" s="10"/>
+      <c r="ACL42" s="10"/>
+      <c r="ACM42" s="10"/>
+      <c r="ACN42" s="10"/>
+      <c r="ACO42" s="10"/>
+      <c r="ACP42" s="10"/>
+      <c r="ACQ42" s="10"/>
+      <c r="ACR42" s="10"/>
+      <c r="ACS42" s="10"/>
+      <c r="ACT42" s="10"/>
+      <c r="ACU42" s="10"/>
+      <c r="ACV42" s="10"/>
+      <c r="ACW42" s="10"/>
+      <c r="ACX42" s="10"/>
+      <c r="ACY42" s="10"/>
+      <c r="ACZ42" s="10"/>
+      <c r="ADA42" s="10"/>
+      <c r="ADB42" s="10"/>
+      <c r="ADC42" s="10"/>
+      <c r="ADD42" s="10"/>
+      <c r="ADE42" s="10"/>
+      <c r="ADF42" s="10"/>
+      <c r="ADG42" s="10"/>
+      <c r="ADH42" s="10"/>
+      <c r="ADI42" s="10"/>
+      <c r="ADJ42" s="10"/>
+      <c r="ADK42" s="10"/>
+      <c r="ADL42" s="10"/>
+      <c r="ADM42" s="10"/>
+      <c r="ADN42" s="10"/>
+      <c r="ADO42" s="10"/>
+      <c r="ADP42" s="10"/>
+      <c r="ADQ42" s="10"/>
+      <c r="ADR42" s="10"/>
+      <c r="ADS42" s="10"/>
+      <c r="ADT42" s="10"/>
+      <c r="ADU42" s="10"/>
+      <c r="ADV42" s="10"/>
+      <c r="ADW42" s="10"/>
+      <c r="ADX42" s="10"/>
+      <c r="ADY42" s="10"/>
+      <c r="ADZ42" s="10"/>
+      <c r="AEA42" s="10"/>
+      <c r="AEB42" s="10"/>
+      <c r="AEC42" s="10"/>
+      <c r="AED42" s="10"/>
+      <c r="AEE42" s="10"/>
+      <c r="AEF42" s="10"/>
+      <c r="AEG42" s="10"/>
+      <c r="AEH42" s="10"/>
+      <c r="AEI42" s="10"/>
+      <c r="AEJ42" s="10"/>
+      <c r="AEK42" s="10"/>
+      <c r="AEL42" s="10"/>
+      <c r="AEM42" s="10"/>
+      <c r="AEN42" s="10"/>
+      <c r="AEO42" s="10"/>
+      <c r="AEP42" s="10"/>
+      <c r="AEQ42" s="10"/>
+      <c r="AER42" s="10"/>
+      <c r="AES42" s="10"/>
+      <c r="AET42" s="10"/>
+      <c r="AEU42" s="10"/>
+      <c r="AEV42" s="10"/>
+      <c r="AEW42" s="10"/>
+      <c r="AEX42" s="10"/>
+      <c r="AEY42" s="10"/>
+      <c r="AEZ42" s="10"/>
+      <c r="AFA42" s="10"/>
+      <c r="AFB42" s="10"/>
+      <c r="AFC42" s="10"/>
+      <c r="AFD42" s="10"/>
+      <c r="AFE42" s="10"/>
+      <c r="AFF42" s="10"/>
+      <c r="AFG42" s="10"/>
+      <c r="AFH42" s="10"/>
+      <c r="AFI42" s="10"/>
+      <c r="AFJ42" s="10"/>
+      <c r="AFK42" s="10"/>
+      <c r="AFL42" s="10"/>
+      <c r="AFM42" s="10"/>
+      <c r="AFN42" s="10"/>
+      <c r="AFO42" s="10"/>
+      <c r="AFP42" s="10"/>
+      <c r="AFQ42" s="10"/>
+      <c r="AFR42" s="10"/>
+      <c r="AFS42" s="10"/>
+      <c r="AFT42" s="10"/>
+      <c r="AFU42" s="10"/>
+      <c r="AFV42" s="10"/>
+      <c r="AFW42" s="10"/>
+      <c r="AFX42" s="10"/>
+      <c r="AFY42" s="10"/>
+      <c r="AFZ42" s="10"/>
+      <c r="AGA42" s="10"/>
+      <c r="AGB42" s="10"/>
+      <c r="AGC42" s="10"/>
+      <c r="AGD42" s="10"/>
+      <c r="AGE42" s="10"/>
+      <c r="AGF42" s="10"/>
+      <c r="AGG42" s="10"/>
+      <c r="AGH42" s="10"/>
+      <c r="AGI42" s="10"/>
+      <c r="AGJ42" s="10"/>
+      <c r="AGK42" s="10"/>
+      <c r="AGL42" s="10"/>
+      <c r="AGM42" s="10"/>
+      <c r="AGN42" s="10"/>
+      <c r="AGO42" s="10"/>
+      <c r="AGP42" s="10"/>
+      <c r="AGQ42" s="10"/>
+      <c r="AGR42" s="10"/>
+      <c r="AGS42" s="10"/>
+      <c r="AGT42" s="10"/>
+      <c r="AGU42" s="10"/>
+      <c r="AGV42" s="10"/>
+      <c r="AGW42" s="10"/>
+      <c r="AGX42" s="10"/>
+      <c r="AGY42" s="10"/>
+      <c r="AGZ42" s="10"/>
+      <c r="AHA42" s="10"/>
+      <c r="AHB42" s="10"/>
+      <c r="AHC42" s="10"/>
+      <c r="AHD42" s="10"/>
+      <c r="AHE42" s="10"/>
+      <c r="AHF42" s="10"/>
+      <c r="AHG42" s="10"/>
+      <c r="AHH42" s="10"/>
+      <c r="AHI42" s="10"/>
+      <c r="AHJ42" s="10"/>
+      <c r="AHK42" s="10"/>
+      <c r="AHL42" s="10"/>
+      <c r="AHM42" s="10"/>
+      <c r="AHN42" s="10"/>
+      <c r="AHO42" s="10"/>
+      <c r="AHP42" s="10"/>
+      <c r="AHQ42" s="10"/>
+      <c r="AHR42" s="10"/>
+      <c r="AHS42" s="10"/>
+      <c r="AHT42" s="10"/>
+      <c r="AHU42" s="10"/>
+      <c r="AHV42" s="10"/>
+      <c r="AHW42" s="10"/>
+      <c r="AHX42" s="10"/>
+      <c r="AHY42" s="10"/>
+      <c r="AHZ42" s="10"/>
+      <c r="AIA42" s="10"/>
+      <c r="AIB42" s="10"/>
+      <c r="AIC42" s="10"/>
+      <c r="AID42" s="10"/>
+      <c r="AIE42" s="10"/>
+      <c r="AIF42" s="10"/>
+      <c r="AIG42" s="10"/>
+      <c r="AIH42" s="10"/>
+      <c r="AII42" s="10"/>
+      <c r="AIJ42" s="10"/>
+      <c r="AIK42" s="10"/>
+      <c r="AIL42" s="10"/>
+      <c r="AIM42" s="10"/>
+      <c r="AIN42" s="10"/>
+      <c r="AIO42" s="10"/>
+      <c r="AIP42" s="10"/>
+      <c r="AIQ42" s="10"/>
+      <c r="AIR42" s="10"/>
+      <c r="AIS42" s="10"/>
+      <c r="AIT42" s="10"/>
+      <c r="AIU42" s="10"/>
+      <c r="AIV42" s="10"/>
+      <c r="AIW42" s="10"/>
+      <c r="AIX42" s="10"/>
+      <c r="AIY42" s="10"/>
+      <c r="AIZ42" s="10"/>
+      <c r="AJA42" s="10"/>
+      <c r="AJB42" s="10"/>
+      <c r="AJC42" s="10"/>
+      <c r="AJD42" s="10"/>
+      <c r="AJE42" s="10"/>
+      <c r="AJF42" s="10"/>
+      <c r="AJG42" s="10"/>
+      <c r="AJH42" s="10"/>
+      <c r="AJI42" s="10"/>
+      <c r="AJJ42" s="10"/>
+      <c r="AJK42" s="10"/>
+      <c r="AJL42" s="10"/>
+      <c r="AJM42" s="10"/>
+      <c r="AJN42" s="10"/>
+      <c r="AJO42" s="10"/>
+      <c r="AJP42" s="10"/>
+      <c r="AJQ42" s="10"/>
+      <c r="AJR42" s="10"/>
+      <c r="AJS42" s="10"/>
+      <c r="AJT42" s="10"/>
+      <c r="AJU42" s="10"/>
+      <c r="AJV42" s="10"/>
+      <c r="AJW42" s="10"/>
+      <c r="AJX42" s="10"/>
+      <c r="AJY42" s="10"/>
+      <c r="AJZ42" s="10"/>
+      <c r="AKA42" s="10"/>
+      <c r="AKB42" s="10"/>
+      <c r="AKC42" s="10"/>
+      <c r="AKD42" s="10"/>
+      <c r="AKE42" s="10"/>
+      <c r="AKF42" s="10"/>
+      <c r="AKG42" s="10"/>
+      <c r="AKH42" s="10"/>
+      <c r="AKI42" s="10"/>
+      <c r="AKJ42" s="10"/>
+      <c r="AKK42" s="10"/>
+      <c r="AKL42" s="10"/>
+      <c r="AKM42" s="10"/>
+      <c r="AKN42" s="10"/>
+      <c r="AKO42" s="10"/>
+      <c r="AKP42" s="10"/>
+      <c r="AKQ42" s="10"/>
+      <c r="AKR42" s="10"/>
+      <c r="AKS42" s="10"/>
+      <c r="AKT42" s="10"/>
+      <c r="AKU42" s="10"/>
+      <c r="AKV42" s="10"/>
+      <c r="AKW42" s="10"/>
+      <c r="AKX42" s="10"/>
+      <c r="AKY42" s="10"/>
+      <c r="AKZ42" s="10"/>
+      <c r="ALA42" s="10"/>
+      <c r="ALB42" s="10"/>
+      <c r="ALC42" s="10"/>
+      <c r="ALD42" s="10"/>
+      <c r="ALE42" s="10"/>
+      <c r="ALF42" s="10"/>
+      <c r="ALG42" s="10"/>
+      <c r="ALH42" s="10"/>
+      <c r="ALI42" s="10"/>
+      <c r="ALJ42" s="10"/>
+      <c r="ALK42" s="10"/>
+      <c r="ALL42" s="10"/>
+      <c r="ALM42" s="10"/>
+      <c r="ALN42" s="10"/>
+      <c r="ALO42" s="10"/>
+      <c r="ALP42" s="10"/>
+      <c r="ALQ42" s="10"/>
+      <c r="ALR42" s="10"/>
+      <c r="ALS42" s="10"/>
+      <c r="ALT42" s="10"/>
+      <c r="ALU42" s="10"/>
+      <c r="ALV42" s="10"/>
+      <c r="ALW42" s="10"/>
+      <c r="ALX42" s="10"/>
+      <c r="ALY42" s="10"/>
+      <c r="ALZ42" s="10"/>
+      <c r="AMA42" s="10"/>
+      <c r="AMB42" s="10"/>
+      <c r="AMC42" s="10"/>
+      <c r="AMD42" s="10"/>
+      <c r="AME42" s="10"/>
+      <c r="AMF42" s="10"/>
+      <c r="AMG42" s="10"/>
+      <c r="AMH42" s="10"/>
+      <c r="AMI42" s="10"/>
+      <c r="AMJ42" s="10"/>
+      <c r="AMK42" s="10"/>
+    </row>
+    <row r="43" spans="1:1025" s="12" customFormat="1">
+      <c r="A43" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="25">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="25">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="10"/>
+      <c r="BF43" s="10"/>
+      <c r="BG43" s="10"/>
+      <c r="BH43" s="10"/>
+      <c r="BI43" s="10"/>
+      <c r="BJ43" s="10"/>
+      <c r="BK43" s="10"/>
+      <c r="BL43" s="10"/>
+      <c r="BM43" s="10"/>
+      <c r="BN43" s="10"/>
+      <c r="BO43" s="10"/>
+      <c r="BP43" s="10"/>
+      <c r="BQ43" s="10"/>
+      <c r="BR43" s="10"/>
+      <c r="BS43" s="10"/>
+      <c r="BT43" s="10"/>
+      <c r="BU43" s="10"/>
+      <c r="BV43" s="10"/>
+      <c r="BW43" s="10"/>
+      <c r="BX43" s="10"/>
+      <c r="BY43" s="10"/>
+      <c r="BZ43" s="10"/>
+      <c r="CA43" s="10"/>
+      <c r="CB43" s="10"/>
+      <c r="CC43" s="10"/>
+      <c r="CD43" s="10"/>
+      <c r="CE43" s="10"/>
+      <c r="CF43" s="10"/>
+      <c r="CG43" s="10"/>
+      <c r="CH43" s="10"/>
+      <c r="CI43" s="10"/>
+      <c r="CJ43" s="10"/>
+      <c r="CK43" s="10"/>
+      <c r="CL43" s="10"/>
+      <c r="CM43" s="10"/>
+      <c r="CN43" s="10"/>
+      <c r="CO43" s="10"/>
+      <c r="CP43" s="10"/>
+      <c r="CQ43" s="10"/>
+      <c r="CR43" s="10"/>
+      <c r="CS43" s="10"/>
+      <c r="CT43" s="10"/>
+      <c r="CU43" s="10"/>
+      <c r="CV43" s="10"/>
+      <c r="CW43" s="10"/>
+      <c r="CX43" s="10"/>
+      <c r="CY43" s="10"/>
+      <c r="CZ43" s="10"/>
+      <c r="DA43" s="10"/>
+      <c r="DB43" s="10"/>
+      <c r="DC43" s="10"/>
+      <c r="DD43" s="10"/>
+      <c r="DE43" s="10"/>
+      <c r="DF43" s="10"/>
+      <c r="DG43" s="10"/>
+      <c r="DH43" s="10"/>
+      <c r="DI43" s="10"/>
+      <c r="DJ43" s="10"/>
+      <c r="DK43" s="10"/>
+      <c r="DL43" s="10"/>
+      <c r="DM43" s="10"/>
+      <c r="DN43" s="10"/>
+      <c r="DO43" s="10"/>
+      <c r="DP43" s="10"/>
+      <c r="DQ43" s="10"/>
+      <c r="DR43" s="10"/>
+      <c r="DS43" s="10"/>
+      <c r="DT43" s="10"/>
+      <c r="DU43" s="10"/>
+      <c r="DV43" s="10"/>
+      <c r="DW43" s="10"/>
+      <c r="DX43" s="10"/>
+      <c r="DY43" s="10"/>
+      <c r="DZ43" s="10"/>
+      <c r="EA43" s="10"/>
+      <c r="EB43" s="10"/>
+      <c r="EC43" s="10"/>
+      <c r="ED43" s="10"/>
+      <c r="EE43" s="10"/>
+      <c r="EF43" s="10"/>
+      <c r="EG43" s="10"/>
+      <c r="EH43" s="10"/>
+      <c r="EI43" s="10"/>
+      <c r="EJ43" s="10"/>
+      <c r="EK43" s="10"/>
+      <c r="EL43" s="10"/>
+      <c r="EM43" s="10"/>
+      <c r="EN43" s="10"/>
+      <c r="EO43" s="10"/>
+      <c r="EP43" s="10"/>
+      <c r="EQ43" s="10"/>
+      <c r="ER43" s="10"/>
+      <c r="ES43" s="10"/>
+      <c r="ET43" s="10"/>
+      <c r="EU43" s="10"/>
+      <c r="EV43" s="10"/>
+      <c r="EW43" s="10"/>
+      <c r="EX43" s="10"/>
+      <c r="EY43" s="10"/>
+      <c r="EZ43" s="10"/>
+      <c r="FA43" s="10"/>
+      <c r="FB43" s="10"/>
+      <c r="FC43" s="10"/>
+      <c r="FD43" s="10"/>
+      <c r="FE43" s="10"/>
+      <c r="FF43" s="10"/>
+      <c r="FG43" s="10"/>
+      <c r="FH43" s="10"/>
+      <c r="FI43" s="10"/>
+      <c r="FJ43" s="10"/>
+      <c r="FK43" s="10"/>
+      <c r="FL43" s="10"/>
+      <c r="FM43" s="10"/>
+      <c r="FN43" s="10"/>
+      <c r="FO43" s="10"/>
+      <c r="FP43" s="10"/>
+      <c r="FQ43" s="10"/>
+      <c r="FR43" s="10"/>
+      <c r="FS43" s="10"/>
+      <c r="FT43" s="10"/>
+      <c r="FU43" s="10"/>
+      <c r="FV43" s="10"/>
+      <c r="FW43" s="10"/>
+      <c r="FX43" s="10"/>
+      <c r="FY43" s="10"/>
+      <c r="FZ43" s="10"/>
+      <c r="GA43" s="10"/>
+      <c r="GB43" s="10"/>
+      <c r="GC43" s="10"/>
+      <c r="GD43" s="10"/>
+      <c r="GE43" s="10"/>
+      <c r="GF43" s="10"/>
+      <c r="GG43" s="10"/>
+      <c r="GH43" s="10"/>
+      <c r="GI43" s="10"/>
+      <c r="GJ43" s="10"/>
+      <c r="GK43" s="10"/>
+      <c r="GL43" s="10"/>
+      <c r="GM43" s="10"/>
+      <c r="GN43" s="10"/>
+      <c r="GO43" s="10"/>
+      <c r="GP43" s="10"/>
+      <c r="GQ43" s="10"/>
+      <c r="GR43" s="10"/>
+      <c r="GS43" s="10"/>
+      <c r="GT43" s="10"/>
+      <c r="GU43" s="10"/>
+      <c r="GV43" s="10"/>
+      <c r="GW43" s="10"/>
+      <c r="GX43" s="10"/>
+      <c r="GY43" s="10"/>
+      <c r="GZ43" s="10"/>
+      <c r="HA43" s="10"/>
+      <c r="HB43" s="10"/>
+      <c r="HC43" s="10"/>
+      <c r="HD43" s="10"/>
+      <c r="HE43" s="10"/>
+      <c r="HF43" s="10"/>
+      <c r="HG43" s="10"/>
+      <c r="HH43" s="10"/>
+      <c r="HI43" s="10"/>
+      <c r="HJ43" s="10"/>
+      <c r="HK43" s="10"/>
+      <c r="HL43" s="10"/>
+      <c r="HM43" s="10"/>
+      <c r="HN43" s="10"/>
+      <c r="HO43" s="10"/>
+      <c r="HP43" s="10"/>
+      <c r="HQ43" s="10"/>
+      <c r="HR43" s="10"/>
+      <c r="HS43" s="10"/>
+      <c r="HT43" s="10"/>
+      <c r="HU43" s="10"/>
+      <c r="HV43" s="10"/>
+      <c r="HW43" s="10"/>
+      <c r="HX43" s="10"/>
+      <c r="HY43" s="10"/>
+      <c r="HZ43" s="10"/>
+      <c r="IA43" s="10"/>
+      <c r="IB43" s="10"/>
+      <c r="IC43" s="10"/>
+      <c r="ID43" s="10"/>
+      <c r="IE43" s="10"/>
+      <c r="IF43" s="10"/>
+      <c r="IG43" s="10"/>
+      <c r="IH43" s="10"/>
+      <c r="II43" s="10"/>
+      <c r="IJ43" s="10"/>
+      <c r="IK43" s="10"/>
+      <c r="IL43" s="10"/>
+      <c r="IM43" s="10"/>
+      <c r="IN43" s="10"/>
+      <c r="IO43" s="10"/>
+      <c r="IP43" s="10"/>
+      <c r="IQ43" s="10"/>
+      <c r="IR43" s="10"/>
+      <c r="IS43" s="10"/>
+      <c r="IT43" s="10"/>
+      <c r="IU43" s="10"/>
+      <c r="IV43" s="10"/>
+      <c r="IW43" s="10"/>
+      <c r="IX43" s="10"/>
+      <c r="IY43" s="10"/>
+      <c r="IZ43" s="10"/>
+      <c r="JA43" s="10"/>
+      <c r="JB43" s="10"/>
+      <c r="JC43" s="10"/>
+      <c r="JD43" s="10"/>
+      <c r="JE43" s="10"/>
+      <c r="JF43" s="10"/>
+      <c r="JG43" s="10"/>
+      <c r="JH43" s="10"/>
+      <c r="JI43" s="10"/>
+      <c r="JJ43" s="10"/>
+      <c r="JK43" s="10"/>
+      <c r="JL43" s="10"/>
+      <c r="JM43" s="10"/>
+      <c r="JN43" s="10"/>
+      <c r="JO43" s="10"/>
+      <c r="JP43" s="10"/>
+      <c r="JQ43" s="10"/>
+      <c r="JR43" s="10"/>
+      <c r="JS43" s="10"/>
+      <c r="JT43" s="10"/>
+      <c r="JU43" s="10"/>
+      <c r="JV43" s="10"/>
+      <c r="JW43" s="10"/>
+      <c r="JX43" s="10"/>
+      <c r="JY43" s="10"/>
+      <c r="JZ43" s="10"/>
+      <c r="KA43" s="10"/>
+      <c r="KB43" s="10"/>
+      <c r="KC43" s="10"/>
+      <c r="KD43" s="10"/>
+      <c r="KE43" s="10"/>
+      <c r="KF43" s="10"/>
+      <c r="KG43" s="10"/>
+      <c r="KH43" s="10"/>
+      <c r="KI43" s="10"/>
+      <c r="KJ43" s="10"/>
+      <c r="KK43" s="10"/>
+      <c r="KL43" s="10"/>
+      <c r="KM43" s="10"/>
+      <c r="KN43" s="10"/>
+      <c r="KO43" s="10"/>
+      <c r="KP43" s="10"/>
+      <c r="KQ43" s="10"/>
+      <c r="KR43" s="10"/>
+      <c r="KS43" s="10"/>
+      <c r="KT43" s="10"/>
+      <c r="KU43" s="10"/>
+      <c r="KV43" s="10"/>
+      <c r="KW43" s="10"/>
+      <c r="KX43" s="10"/>
+      <c r="KY43" s="10"/>
+      <c r="KZ43" s="10"/>
+      <c r="LA43" s="10"/>
+      <c r="LB43" s="10"/>
+      <c r="LC43" s="10"/>
+      <c r="LD43" s="10"/>
+      <c r="LE43" s="10"/>
+      <c r="LF43" s="10"/>
+      <c r="LG43" s="10"/>
+      <c r="LH43" s="10"/>
+      <c r="LI43" s="10"/>
+      <c r="LJ43" s="10"/>
+      <c r="LK43" s="10"/>
+      <c r="LL43" s="10"/>
+      <c r="LM43" s="10"/>
+      <c r="LN43" s="10"/>
+      <c r="LO43" s="10"/>
+      <c r="LP43" s="10"/>
+      <c r="LQ43" s="10"/>
+      <c r="LR43" s="10"/>
+      <c r="LS43" s="10"/>
+      <c r="LT43" s="10"/>
+      <c r="LU43" s="10"/>
+      <c r="LV43" s="10"/>
+      <c r="LW43" s="10"/>
+      <c r="LX43" s="10"/>
+      <c r="LY43" s="10"/>
+      <c r="LZ43" s="10"/>
+      <c r="MA43" s="10"/>
+      <c r="MB43" s="10"/>
+      <c r="MC43" s="10"/>
+      <c r="MD43" s="10"/>
+      <c r="ME43" s="10"/>
+      <c r="MF43" s="10"/>
+      <c r="MG43" s="10"/>
+      <c r="MH43" s="10"/>
+      <c r="MI43" s="10"/>
+      <c r="MJ43" s="10"/>
+      <c r="MK43" s="10"/>
+      <c r="ML43" s="10"/>
+      <c r="MM43" s="10"/>
+      <c r="MN43" s="10"/>
+      <c r="MO43" s="10"/>
+      <c r="MP43" s="10"/>
+      <c r="MQ43" s="10"/>
+      <c r="MR43" s="10"/>
+      <c r="MS43" s="10"/>
+      <c r="MT43" s="10"/>
+      <c r="MU43" s="10"/>
+      <c r="MV43" s="10"/>
+      <c r="MW43" s="10"/>
+      <c r="MX43" s="10"/>
+      <c r="MY43" s="10"/>
+      <c r="MZ43" s="10"/>
+      <c r="NA43" s="10"/>
+      <c r="NB43" s="10"/>
+      <c r="NC43" s="10"/>
+      <c r="ND43" s="10"/>
+      <c r="NE43" s="10"/>
+      <c r="NF43" s="10"/>
+      <c r="NG43" s="10"/>
+      <c r="NH43" s="10"/>
+      <c r="NI43" s="10"/>
+      <c r="NJ43" s="10"/>
+      <c r="NK43" s="10"/>
+      <c r="NL43" s="10"/>
+      <c r="NM43" s="10"/>
+      <c r="NN43" s="10"/>
+      <c r="NO43" s="10"/>
+      <c r="NP43" s="10"/>
+      <c r="NQ43" s="10"/>
+      <c r="NR43" s="10"/>
+      <c r="NS43" s="10"/>
+      <c r="NT43" s="10"/>
+      <c r="NU43" s="10"/>
+      <c r="NV43" s="10"/>
+      <c r="NW43" s="10"/>
+      <c r="NX43" s="10"/>
+      <c r="NY43" s="10"/>
+      <c r="NZ43" s="10"/>
+      <c r="OA43" s="10"/>
+      <c r="OB43" s="10"/>
+      <c r="OC43" s="10"/>
+      <c r="OD43" s="10"/>
+      <c r="OE43" s="10"/>
+      <c r="OF43" s="10"/>
+      <c r="OG43" s="10"/>
+      <c r="OH43" s="10"/>
+      <c r="OI43" s="10"/>
+      <c r="OJ43" s="10"/>
+      <c r="OK43" s="10"/>
+      <c r="OL43" s="10"/>
+      <c r="OM43" s="10"/>
+      <c r="ON43" s="10"/>
+      <c r="OO43" s="10"/>
+      <c r="OP43" s="10"/>
+      <c r="OQ43" s="10"/>
+      <c r="OR43" s="10"/>
+      <c r="OS43" s="10"/>
+      <c r="OT43" s="10"/>
+      <c r="OU43" s="10"/>
+      <c r="OV43" s="10"/>
+      <c r="OW43" s="10"/>
+      <c r="OX43" s="10"/>
+      <c r="OY43" s="10"/>
+      <c r="OZ43" s="10"/>
+      <c r="PA43" s="10"/>
+      <c r="PB43" s="10"/>
+      <c r="PC43" s="10"/>
+      <c r="PD43" s="10"/>
+      <c r="PE43" s="10"/>
+      <c r="PF43" s="10"/>
+      <c r="PG43" s="10"/>
+      <c r="PH43" s="10"/>
+      <c r="PI43" s="10"/>
+      <c r="PJ43" s="10"/>
+      <c r="PK43" s="10"/>
+      <c r="PL43" s="10"/>
+      <c r="PM43" s="10"/>
+      <c r="PN43" s="10"/>
+      <c r="PO43" s="10"/>
+      <c r="PP43" s="10"/>
+      <c r="PQ43" s="10"/>
+      <c r="PR43" s="10"/>
+      <c r="PS43" s="10"/>
+      <c r="PT43" s="10"/>
+      <c r="PU43" s="10"/>
+      <c r="PV43" s="10"/>
+      <c r="PW43" s="10"/>
+      <c r="PX43" s="10"/>
+      <c r="PY43" s="10"/>
+      <c r="PZ43" s="10"/>
+      <c r="QA43" s="10"/>
+      <c r="QB43" s="10"/>
+      <c r="QC43" s="10"/>
+      <c r="QD43" s="10"/>
+      <c r="QE43" s="10"/>
+      <c r="QF43" s="10"/>
+      <c r="QG43" s="10"/>
+      <c r="QH43" s="10"/>
+      <c r="QI43" s="10"/>
+      <c r="QJ43" s="10"/>
+      <c r="QK43" s="10"/>
+      <c r="QL43" s="10"/>
+      <c r="QM43" s="10"/>
+      <c r="QN43" s="10"/>
+      <c r="QO43" s="10"/>
+      <c r="QP43" s="10"/>
+      <c r="QQ43" s="10"/>
+      <c r="QR43" s="10"/>
+      <c r="QS43" s="10"/>
+      <c r="QT43" s="10"/>
+      <c r="QU43" s="10"/>
+      <c r="QV43" s="10"/>
+      <c r="QW43" s="10"/>
+      <c r="QX43" s="10"/>
+      <c r="QY43" s="10"/>
+      <c r="QZ43" s="10"/>
+      <c r="RA43" s="10"/>
+      <c r="RB43" s="10"/>
+      <c r="RC43" s="10"/>
+      <c r="RD43" s="10"/>
+      <c r="RE43" s="10"/>
+      <c r="RF43" s="10"/>
+      <c r="RG43" s="10"/>
+      <c r="RH43" s="10"/>
+      <c r="RI43" s="10"/>
+      <c r="RJ43" s="10"/>
+      <c r="RK43" s="10"/>
+      <c r="RL43" s="10"/>
+      <c r="RM43" s="10"/>
+      <c r="RN43" s="10"/>
+      <c r="RO43" s="10"/>
+      <c r="RP43" s="10"/>
+      <c r="RQ43" s="10"/>
+      <c r="RR43" s="10"/>
+      <c r="RS43" s="10"/>
+      <c r="RT43" s="10"/>
+      <c r="RU43" s="10"/>
+      <c r="RV43" s="10"/>
+      <c r="RW43" s="10"/>
+      <c r="RX43" s="10"/>
+      <c r="RY43" s="10"/>
+      <c r="RZ43" s="10"/>
+      <c r="SA43" s="10"/>
+      <c r="SB43" s="10"/>
+      <c r="SC43" s="10"/>
+      <c r="SD43" s="10"/>
+      <c r="SE43" s="10"/>
+      <c r="SF43" s="10"/>
+      <c r="SG43" s="10"/>
+      <c r="SH43" s="10"/>
+      <c r="SI43" s="10"/>
+      <c r="SJ43" s="10"/>
+      <c r="SK43" s="10"/>
+      <c r="SL43" s="10"/>
+      <c r="SM43" s="10"/>
+      <c r="SN43" s="10"/>
+      <c r="SO43" s="10"/>
+      <c r="SP43" s="10"/>
+      <c r="SQ43" s="10"/>
+      <c r="SR43" s="10"/>
+      <c r="SS43" s="10"/>
+      <c r="ST43" s="10"/>
+      <c r="SU43" s="10"/>
+      <c r="SV43" s="10"/>
+      <c r="SW43" s="10"/>
+      <c r="SX43" s="10"/>
+      <c r="SY43" s="10"/>
+      <c r="SZ43" s="10"/>
+      <c r="TA43" s="10"/>
+      <c r="TB43" s="10"/>
+      <c r="TC43" s="10"/>
+      <c r="TD43" s="10"/>
+      <c r="TE43" s="10"/>
+      <c r="TF43" s="10"/>
+      <c r="TG43" s="10"/>
+      <c r="TH43" s="10"/>
+      <c r="TI43" s="10"/>
+      <c r="TJ43" s="10"/>
+      <c r="TK43" s="10"/>
+      <c r="TL43" s="10"/>
+      <c r="TM43" s="10"/>
+      <c r="TN43" s="10"/>
+      <c r="TO43" s="10"/>
+      <c r="TP43" s="10"/>
+      <c r="TQ43" s="10"/>
+      <c r="TR43" s="10"/>
+      <c r="TS43" s="10"/>
+      <c r="TT43" s="10"/>
+      <c r="TU43" s="10"/>
+      <c r="TV43" s="10"/>
+      <c r="TW43" s="10"/>
+      <c r="TX43" s="10"/>
+      <c r="TY43" s="10"/>
+      <c r="TZ43" s="10"/>
+      <c r="UA43" s="10"/>
+      <c r="UB43" s="10"/>
+      <c r="UC43" s="10"/>
+      <c r="UD43" s="10"/>
+      <c r="UE43" s="10"/>
+      <c r="UF43" s="10"/>
+      <c r="UG43" s="10"/>
+      <c r="UH43" s="10"/>
+      <c r="UI43" s="10"/>
+      <c r="UJ43" s="10"/>
+      <c r="UK43" s="10"/>
+      <c r="UL43" s="10"/>
+      <c r="UM43" s="10"/>
+      <c r="UN43" s="10"/>
+      <c r="UO43" s="10"/>
+      <c r="UP43" s="10"/>
+      <c r="UQ43" s="10"/>
+      <c r="UR43" s="10"/>
+      <c r="US43" s="10"/>
+      <c r="UT43" s="10"/>
+      <c r="UU43" s="10"/>
+      <c r="UV43" s="10"/>
+      <c r="UW43" s="10"/>
+      <c r="UX43" s="10"/>
+      <c r="UY43" s="10"/>
+      <c r="UZ43" s="10"/>
+      <c r="VA43" s="10"/>
+      <c r="VB43" s="10"/>
+      <c r="VC43" s="10"/>
+      <c r="VD43" s="10"/>
+      <c r="VE43" s="10"/>
+      <c r="VF43" s="10"/>
+      <c r="VG43" s="10"/>
+      <c r="VH43" s="10"/>
+      <c r="VI43" s="10"/>
+      <c r="VJ43" s="10"/>
+      <c r="VK43" s="10"/>
+      <c r="VL43" s="10"/>
+      <c r="VM43" s="10"/>
+      <c r="VN43" s="10"/>
+      <c r="VO43" s="10"/>
+      <c r="VP43" s="10"/>
+      <c r="VQ43" s="10"/>
+      <c r="VR43" s="10"/>
+      <c r="VS43" s="10"/>
+      <c r="VT43" s="10"/>
+      <c r="VU43" s="10"/>
+      <c r="VV43" s="10"/>
+      <c r="VW43" s="10"/>
+      <c r="VX43" s="10"/>
+      <c r="VY43" s="10"/>
+      <c r="VZ43" s="10"/>
+      <c r="WA43" s="10"/>
+      <c r="WB43" s="10"/>
+      <c r="WC43" s="10"/>
+      <c r="WD43" s="10"/>
+      <c r="WE43" s="10"/>
+      <c r="WF43" s="10"/>
+      <c r="WG43" s="10"/>
+      <c r="WH43" s="10"/>
+      <c r="WI43" s="10"/>
+      <c r="WJ43" s="10"/>
+      <c r="WK43" s="10"/>
+      <c r="WL43" s="10"/>
+      <c r="WM43" s="10"/>
+      <c r="WN43" s="10"/>
+      <c r="WO43" s="10"/>
+      <c r="WP43" s="10"/>
+      <c r="WQ43" s="10"/>
+      <c r="WR43" s="10"/>
+      <c r="WS43" s="10"/>
+      <c r="WT43" s="10"/>
+      <c r="WU43" s="10"/>
+      <c r="WV43" s="10"/>
+      <c r="WW43" s="10"/>
+      <c r="WX43" s="10"/>
+      <c r="WY43" s="10"/>
+      <c r="WZ43" s="10"/>
+      <c r="XA43" s="10"/>
+      <c r="XB43" s="10"/>
+      <c r="XC43" s="10"/>
+      <c r="XD43" s="10"/>
+      <c r="XE43" s="10"/>
+      <c r="XF43" s="10"/>
+      <c r="XG43" s="10"/>
+      <c r="XH43" s="10"/>
+      <c r="XI43" s="10"/>
+      <c r="XJ43" s="10"/>
+      <c r="XK43" s="10"/>
+      <c r="XL43" s="10"/>
+      <c r="XM43" s="10"/>
+      <c r="XN43" s="10"/>
+      <c r="XO43" s="10"/>
+      <c r="XP43" s="10"/>
+      <c r="XQ43" s="10"/>
+      <c r="XR43" s="10"/>
+      <c r="XS43" s="10"/>
+      <c r="XT43" s="10"/>
+      <c r="XU43" s="10"/>
+      <c r="XV43" s="10"/>
+      <c r="XW43" s="10"/>
+      <c r="XX43" s="10"/>
+      <c r="XY43" s="10"/>
+      <c r="XZ43" s="10"/>
+      <c r="YA43" s="10"/>
+      <c r="YB43" s="10"/>
+      <c r="YC43" s="10"/>
+      <c r="YD43" s="10"/>
+      <c r="YE43" s="10"/>
+      <c r="YF43" s="10"/>
+      <c r="YG43" s="10"/>
+      <c r="YH43" s="10"/>
+      <c r="YI43" s="10"/>
+      <c r="YJ43" s="10"/>
+      <c r="YK43" s="10"/>
+      <c r="YL43" s="10"/>
+      <c r="YM43" s="10"/>
+      <c r="YN43" s="10"/>
+      <c r="YO43" s="10"/>
+      <c r="YP43" s="10"/>
+      <c r="YQ43" s="10"/>
+      <c r="YR43" s="10"/>
+      <c r="YS43" s="10"/>
+      <c r="YT43" s="10"/>
+      <c r="YU43" s="10"/>
+      <c r="YV43" s="10"/>
+      <c r="YW43" s="10"/>
+      <c r="YX43" s="10"/>
+      <c r="YY43" s="10"/>
+      <c r="YZ43" s="10"/>
+      <c r="ZA43" s="10"/>
+      <c r="ZB43" s="10"/>
+      <c r="ZC43" s="10"/>
+      <c r="ZD43" s="10"/>
+      <c r="ZE43" s="10"/>
+      <c r="ZF43" s="10"/>
+      <c r="ZG43" s="10"/>
+      <c r="ZH43" s="10"/>
+      <c r="ZI43" s="10"/>
+      <c r="ZJ43" s="10"/>
+      <c r="ZK43" s="10"/>
+      <c r="ZL43" s="10"/>
+      <c r="ZM43" s="10"/>
+      <c r="ZN43" s="10"/>
+      <c r="ZO43" s="10"/>
+      <c r="ZP43" s="10"/>
+      <c r="ZQ43" s="10"/>
+      <c r="ZR43" s="10"/>
+      <c r="ZS43" s="10"/>
+      <c r="ZT43" s="10"/>
+      <c r="ZU43" s="10"/>
+      <c r="ZV43" s="10"/>
+      <c r="ZW43" s="10"/>
+      <c r="ZX43" s="10"/>
+      <c r="ZY43" s="10"/>
+      <c r="ZZ43" s="10"/>
+      <c r="AAA43" s="10"/>
+      <c r="AAB43" s="10"/>
+      <c r="AAC43" s="10"/>
+      <c r="AAD43" s="10"/>
+      <c r="AAE43" s="10"/>
+      <c r="AAF43" s="10"/>
+      <c r="AAG43" s="10"/>
+      <c r="AAH43" s="10"/>
+      <c r="AAI43" s="10"/>
+      <c r="AAJ43" s="10"/>
+      <c r="AAK43" s="10"/>
+      <c r="AAL43" s="10"/>
+      <c r="AAM43" s="10"/>
+      <c r="AAN43" s="10"/>
+      <c r="AAO43" s="10"/>
+      <c r="AAP43" s="10"/>
+      <c r="AAQ43" s="10"/>
+      <c r="AAR43" s="10"/>
+      <c r="AAS43" s="10"/>
+      <c r="AAT43" s="10"/>
+      <c r="AAU43" s="10"/>
+      <c r="AAV43" s="10"/>
+      <c r="AAW43" s="10"/>
+      <c r="AAX43" s="10"/>
+      <c r="AAY43" s="10"/>
+      <c r="AAZ43" s="10"/>
+      <c r="ABA43" s="10"/>
+      <c r="ABB43" s="10"/>
+      <c r="ABC43" s="10"/>
+      <c r="ABD43" s="10"/>
+      <c r="ABE43" s="10"/>
+      <c r="ABF43" s="10"/>
+      <c r="ABG43" s="10"/>
+      <c r="ABH43" s="10"/>
+      <c r="ABI43" s="10"/>
+      <c r="ABJ43" s="10"/>
+      <c r="ABK43" s="10"/>
+      <c r="ABL43" s="10"/>
+      <c r="ABM43" s="10"/>
+      <c r="ABN43" s="10"/>
+      <c r="ABO43" s="10"/>
+      <c r="ABP43" s="10"/>
+      <c r="ABQ43" s="10"/>
+      <c r="ABR43" s="10"/>
+      <c r="ABS43" s="10"/>
+      <c r="ABT43" s="10"/>
+      <c r="ABU43" s="10"/>
+      <c r="ABV43" s="10"/>
+      <c r="ABW43" s="10"/>
+      <c r="ABX43" s="10"/>
+      <c r="ABY43" s="10"/>
+      <c r="ABZ43" s="10"/>
+      <c r="ACA43" s="10"/>
+      <c r="ACB43" s="10"/>
+      <c r="ACC43" s="10"/>
+      <c r="ACD43" s="10"/>
+      <c r="ACE43" s="10"/>
+      <c r="ACF43" s="10"/>
+      <c r="ACG43" s="10"/>
+      <c r="ACH43" s="10"/>
+      <c r="ACI43" s="10"/>
+      <c r="ACJ43" s="10"/>
+      <c r="ACK43" s="10"/>
+      <c r="ACL43" s="10"/>
+      <c r="ACM43" s="10"/>
+      <c r="ACN43" s="10"/>
+      <c r="ACO43" s="10"/>
+      <c r="ACP43" s="10"/>
+      <c r="ACQ43" s="10"/>
+      <c r="ACR43" s="10"/>
+      <c r="ACS43" s="10"/>
+      <c r="ACT43" s="10"/>
+      <c r="ACU43" s="10"/>
+      <c r="ACV43" s="10"/>
+      <c r="ACW43" s="10"/>
+      <c r="ACX43" s="10"/>
+      <c r="ACY43" s="10"/>
+      <c r="ACZ43" s="10"/>
+      <c r="ADA43" s="10"/>
+      <c r="ADB43" s="10"/>
+      <c r="ADC43" s="10"/>
+      <c r="ADD43" s="10"/>
+      <c r="ADE43" s="10"/>
+      <c r="ADF43" s="10"/>
+      <c r="ADG43" s="10"/>
+      <c r="ADH43" s="10"/>
+      <c r="ADI43" s="10"/>
+      <c r="ADJ43" s="10"/>
+      <c r="ADK43" s="10"/>
+      <c r="ADL43" s="10"/>
+      <c r="ADM43" s="10"/>
+      <c r="ADN43" s="10"/>
+      <c r="ADO43" s="10"/>
+      <c r="ADP43" s="10"/>
+      <c r="ADQ43" s="10"/>
+      <c r="ADR43" s="10"/>
+      <c r="ADS43" s="10"/>
+      <c r="ADT43" s="10"/>
+      <c r="ADU43" s="10"/>
+      <c r="ADV43" s="10"/>
+      <c r="ADW43" s="10"/>
+      <c r="ADX43" s="10"/>
+      <c r="ADY43" s="10"/>
+      <c r="ADZ43" s="10"/>
+      <c r="AEA43" s="10"/>
+      <c r="AEB43" s="10"/>
+      <c r="AEC43" s="10"/>
+      <c r="AED43" s="10"/>
+      <c r="AEE43" s="10"/>
+      <c r="AEF43" s="10"/>
+      <c r="AEG43" s="10"/>
+      <c r="AEH43" s="10"/>
+      <c r="AEI43" s="10"/>
+      <c r="AEJ43" s="10"/>
+      <c r="AEK43" s="10"/>
+      <c r="AEL43" s="10"/>
+      <c r="AEM43" s="10"/>
+      <c r="AEN43" s="10"/>
+      <c r="AEO43" s="10"/>
+      <c r="AEP43" s="10"/>
+      <c r="AEQ43" s="10"/>
+      <c r="AER43" s="10"/>
+      <c r="AES43" s="10"/>
+      <c r="AET43" s="10"/>
+      <c r="AEU43" s="10"/>
+      <c r="AEV43" s="10"/>
+      <c r="AEW43" s="10"/>
+      <c r="AEX43" s="10"/>
+      <c r="AEY43" s="10"/>
+      <c r="AEZ43" s="10"/>
+      <c r="AFA43" s="10"/>
+      <c r="AFB43" s="10"/>
+      <c r="AFC43" s="10"/>
+      <c r="AFD43" s="10"/>
+      <c r="AFE43" s="10"/>
+      <c r="AFF43" s="10"/>
+      <c r="AFG43" s="10"/>
+      <c r="AFH43" s="10"/>
+      <c r="AFI43" s="10"/>
+      <c r="AFJ43" s="10"/>
+      <c r="AFK43" s="10"/>
+      <c r="AFL43" s="10"/>
+      <c r="AFM43" s="10"/>
+      <c r="AFN43" s="10"/>
+      <c r="AFO43" s="10"/>
+      <c r="AFP43" s="10"/>
+      <c r="AFQ43" s="10"/>
+      <c r="AFR43" s="10"/>
+      <c r="AFS43" s="10"/>
+      <c r="AFT43" s="10"/>
+      <c r="AFU43" s="10"/>
+      <c r="AFV43" s="10"/>
+      <c r="AFW43" s="10"/>
+      <c r="AFX43" s="10"/>
+      <c r="AFY43" s="10"/>
+      <c r="AFZ43" s="10"/>
+      <c r="AGA43" s="10"/>
+      <c r="AGB43" s="10"/>
+      <c r="AGC43" s="10"/>
+      <c r="AGD43" s="10"/>
+      <c r="AGE43" s="10"/>
+      <c r="AGF43" s="10"/>
+      <c r="AGG43" s="10"/>
+      <c r="AGH43" s="10"/>
+      <c r="AGI43" s="10"/>
+      <c r="AGJ43" s="10"/>
+      <c r="AGK43" s="10"/>
+      <c r="AGL43" s="10"/>
+      <c r="AGM43" s="10"/>
+      <c r="AGN43" s="10"/>
+      <c r="AGO43" s="10"/>
+      <c r="AGP43" s="10"/>
+      <c r="AGQ43" s="10"/>
+      <c r="AGR43" s="10"/>
+      <c r="AGS43" s="10"/>
+      <c r="AGT43" s="10"/>
+      <c r="AGU43" s="10"/>
+      <c r="AGV43" s="10"/>
+      <c r="AGW43" s="10"/>
+      <c r="AGX43" s="10"/>
+      <c r="AGY43" s="10"/>
+      <c r="AGZ43" s="10"/>
+      <c r="AHA43" s="10"/>
+      <c r="AHB43" s="10"/>
+      <c r="AHC43" s="10"/>
+      <c r="AHD43" s="10"/>
+      <c r="AHE43" s="10"/>
+      <c r="AHF43" s="10"/>
+      <c r="AHG43" s="10"/>
+      <c r="AHH43" s="10"/>
+      <c r="AHI43" s="10"/>
+      <c r="AHJ43" s="10"/>
+      <c r="AHK43" s="10"/>
+      <c r="AHL43" s="10"/>
+      <c r="AHM43" s="10"/>
+      <c r="AHN43" s="10"/>
+      <c r="AHO43" s="10"/>
+      <c r="AHP43" s="10"/>
+      <c r="AHQ43" s="10"/>
+      <c r="AHR43" s="10"/>
+      <c r="AHS43" s="10"/>
+      <c r="AHT43" s="10"/>
+      <c r="AHU43" s="10"/>
+      <c r="AHV43" s="10"/>
+      <c r="AHW43" s="10"/>
+      <c r="AHX43" s="10"/>
+      <c r="AHY43" s="10"/>
+      <c r="AHZ43" s="10"/>
+      <c r="AIA43" s="10"/>
+      <c r="AIB43" s="10"/>
+      <c r="AIC43" s="10"/>
+      <c r="AID43" s="10"/>
+      <c r="AIE43" s="10"/>
+      <c r="AIF43" s="10"/>
+      <c r="AIG43" s="10"/>
+      <c r="AIH43" s="10"/>
+      <c r="AII43" s="10"/>
+      <c r="AIJ43" s="10"/>
+      <c r="AIK43" s="10"/>
+      <c r="AIL43" s="10"/>
+      <c r="AIM43" s="10"/>
+      <c r="AIN43" s="10"/>
+      <c r="AIO43" s="10"/>
+      <c r="AIP43" s="10"/>
+      <c r="AIQ43" s="10"/>
+      <c r="AIR43" s="10"/>
+      <c r="AIS43" s="10"/>
+      <c r="AIT43" s="10"/>
+      <c r="AIU43" s="10"/>
+      <c r="AIV43" s="10"/>
+      <c r="AIW43" s="10"/>
+      <c r="AIX43" s="10"/>
+      <c r="AIY43" s="10"/>
+      <c r="AIZ43" s="10"/>
+      <c r="AJA43" s="10"/>
+      <c r="AJB43" s="10"/>
+      <c r="AJC43" s="10"/>
+      <c r="AJD43" s="10"/>
+      <c r="AJE43" s="10"/>
+      <c r="AJF43" s="10"/>
+      <c r="AJG43" s="10"/>
+      <c r="AJH43" s="10"/>
+      <c r="AJI43" s="10"/>
+      <c r="AJJ43" s="10"/>
+      <c r="AJK43" s="10"/>
+      <c r="AJL43" s="10"/>
+      <c r="AJM43" s="10"/>
+      <c r="AJN43" s="10"/>
+      <c r="AJO43" s="10"/>
+      <c r="AJP43" s="10"/>
+      <c r="AJQ43" s="10"/>
+      <c r="AJR43" s="10"/>
+      <c r="AJS43" s="10"/>
+      <c r="AJT43" s="10"/>
+      <c r="AJU43" s="10"/>
+      <c r="AJV43" s="10"/>
+      <c r="AJW43" s="10"/>
+      <c r="AJX43" s="10"/>
+      <c r="AJY43" s="10"/>
+      <c r="AJZ43" s="10"/>
+      <c r="AKA43" s="10"/>
+      <c r="AKB43" s="10"/>
+      <c r="AKC43" s="10"/>
+      <c r="AKD43" s="10"/>
+      <c r="AKE43" s="10"/>
+      <c r="AKF43" s="10"/>
+      <c r="AKG43" s="10"/>
+      <c r="AKH43" s="10"/>
+      <c r="AKI43" s="10"/>
+      <c r="AKJ43" s="10"/>
+      <c r="AKK43" s="10"/>
+      <c r="AKL43" s="10"/>
+      <c r="AKM43" s="10"/>
+      <c r="AKN43" s="10"/>
+      <c r="AKO43" s="10"/>
+      <c r="AKP43" s="10"/>
+      <c r="AKQ43" s="10"/>
+      <c r="AKR43" s="10"/>
+      <c r="AKS43" s="10"/>
+      <c r="AKT43" s="10"/>
+      <c r="AKU43" s="10"/>
+      <c r="AKV43" s="10"/>
+      <c r="AKW43" s="10"/>
+      <c r="AKX43" s="10"/>
+      <c r="AKY43" s="10"/>
+      <c r="AKZ43" s="10"/>
+      <c r="ALA43" s="10"/>
+      <c r="ALB43" s="10"/>
+      <c r="ALC43" s="10"/>
+      <c r="ALD43" s="10"/>
+      <c r="ALE43" s="10"/>
+      <c r="ALF43" s="10"/>
+      <c r="ALG43" s="10"/>
+      <c r="ALH43" s="10"/>
+      <c r="ALI43" s="10"/>
+      <c r="ALJ43" s="10"/>
+      <c r="ALK43" s="10"/>
+      <c r="ALL43" s="10"/>
+      <c r="ALM43" s="10"/>
+      <c r="ALN43" s="10"/>
+      <c r="ALO43" s="10"/>
+      <c r="ALP43" s="10"/>
+      <c r="ALQ43" s="10"/>
+      <c r="ALR43" s="10"/>
+      <c r="ALS43" s="10"/>
+      <c r="ALT43" s="10"/>
+      <c r="ALU43" s="10"/>
+      <c r="ALV43" s="10"/>
+      <c r="ALW43" s="10"/>
+      <c r="ALX43" s="10"/>
+      <c r="ALY43" s="10"/>
+      <c r="ALZ43" s="10"/>
+      <c r="AMA43" s="10"/>
+      <c r="AMB43" s="10"/>
+      <c r="AMC43" s="10"/>
+      <c r="AMD43" s="10"/>
+      <c r="AME43" s="10"/>
+      <c r="AMF43" s="10"/>
+      <c r="AMG43" s="10"/>
+      <c r="AMH43" s="10"/>
+      <c r="AMI43" s="10"/>
+      <c r="AMJ43" s="10"/>
+      <c r="AMK43" s="10"/>
+    </row>
+    <row r="44" spans="1:1025" s="12" customFormat="1">
+      <c r="A44" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="25">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="25">
+        <v>1</v>
+      </c>
+      <c r="G44" s="25">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="10"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="10"/>
+      <c r="BA44" s="10"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="10"/>
+      <c r="BF44" s="10"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="10"/>
+      <c r="BK44" s="10"/>
+      <c r="BL44" s="10"/>
+      <c r="BM44" s="10"/>
+      <c r="BN44" s="10"/>
+      <c r="BO44" s="10"/>
+      <c r="BP44" s="10"/>
+      <c r="BQ44" s="10"/>
+      <c r="BR44" s="10"/>
+      <c r="BS44" s="10"/>
+      <c r="BT44" s="10"/>
+      <c r="BU44" s="10"/>
+      <c r="BV44" s="10"/>
+      <c r="BW44" s="10"/>
+      <c r="BX44" s="10"/>
+      <c r="BY44" s="10"/>
+      <c r="BZ44" s="10"/>
+      <c r="CA44" s="10"/>
+      <c r="CB44" s="10"/>
+      <c r="CC44" s="10"/>
+      <c r="CD44" s="10"/>
+      <c r="CE44" s="10"/>
+      <c r="CF44" s="10"/>
+      <c r="CG44" s="10"/>
+      <c r="CH44" s="10"/>
+      <c r="CI44" s="10"/>
+      <c r="CJ44" s="10"/>
+      <c r="CK44" s="10"/>
+      <c r="CL44" s="10"/>
+      <c r="CM44" s="10"/>
+      <c r="CN44" s="10"/>
+      <c r="CO44" s="10"/>
+      <c r="CP44" s="10"/>
+      <c r="CQ44" s="10"/>
+      <c r="CR44" s="10"/>
+      <c r="CS44" s="10"/>
+      <c r="CT44" s="10"/>
+      <c r="CU44" s="10"/>
+      <c r="CV44" s="10"/>
+      <c r="CW44" s="10"/>
+      <c r="CX44" s="10"/>
+      <c r="CY44" s="10"/>
+      <c r="CZ44" s="10"/>
+      <c r="DA44" s="10"/>
+      <c r="DB44" s="10"/>
+      <c r="DC44" s="10"/>
+      <c r="DD44" s="10"/>
+      <c r="DE44" s="10"/>
+      <c r="DF44" s="10"/>
+      <c r="DG44" s="10"/>
+      <c r="DH44" s="10"/>
+      <c r="DI44" s="10"/>
+      <c r="DJ44" s="10"/>
+      <c r="DK44" s="10"/>
+      <c r="DL44" s="10"/>
+      <c r="DM44" s="10"/>
+      <c r="DN44" s="10"/>
+      <c r="DO44" s="10"/>
+      <c r="DP44" s="10"/>
+      <c r="DQ44" s="10"/>
+      <c r="DR44" s="10"/>
+      <c r="DS44" s="10"/>
+      <c r="DT44" s="10"/>
+      <c r="DU44" s="10"/>
+      <c r="DV44" s="10"/>
+      <c r="DW44" s="10"/>
+      <c r="DX44" s="10"/>
+      <c r="DY44" s="10"/>
+      <c r="DZ44" s="10"/>
+      <c r="EA44" s="10"/>
+      <c r="EB44" s="10"/>
+      <c r="EC44" s="10"/>
+      <c r="ED44" s="10"/>
+      <c r="EE44" s="10"/>
+      <c r="EF44" s="10"/>
+      <c r="EG44" s="10"/>
+      <c r="EH44" s="10"/>
+      <c r="EI44" s="10"/>
+      <c r="EJ44" s="10"/>
+      <c r="EK44" s="10"/>
+      <c r="EL44" s="10"/>
+      <c r="EM44" s="10"/>
+      <c r="EN44" s="10"/>
+      <c r="EO44" s="10"/>
+      <c r="EP44" s="10"/>
+      <c r="EQ44" s="10"/>
+      <c r="ER44" s="10"/>
+      <c r="ES44" s="10"/>
+      <c r="ET44" s="10"/>
+      <c r="EU44" s="10"/>
+      <c r="EV44" s="10"/>
+      <c r="EW44" s="10"/>
+      <c r="EX44" s="10"/>
+      <c r="EY44" s="10"/>
+      <c r="EZ44" s="10"/>
+      <c r="FA44" s="10"/>
+      <c r="FB44" s="10"/>
+      <c r="FC44" s="10"/>
+      <c r="FD44" s="10"/>
+      <c r="FE44" s="10"/>
+      <c r="FF44" s="10"/>
+      <c r="FG44" s="10"/>
+      <c r="FH44" s="10"/>
+      <c r="FI44" s="10"/>
+      <c r="FJ44" s="10"/>
+      <c r="FK44" s="10"/>
+      <c r="FL44" s="10"/>
+      <c r="FM44" s="10"/>
+      <c r="FN44" s="10"/>
+      <c r="FO44" s="10"/>
+      <c r="FP44" s="10"/>
+      <c r="FQ44" s="10"/>
+      <c r="FR44" s="10"/>
+      <c r="FS44" s="10"/>
+      <c r="FT44" s="10"/>
+      <c r="FU44" s="10"/>
+      <c r="FV44" s="10"/>
+      <c r="FW44" s="10"/>
+      <c r="FX44" s="10"/>
+      <c r="FY44" s="10"/>
+      <c r="FZ44" s="10"/>
+      <c r="GA44" s="10"/>
+      <c r="GB44" s="10"/>
+      <c r="GC44" s="10"/>
+      <c r="GD44" s="10"/>
+      <c r="GE44" s="10"/>
+      <c r="GF44" s="10"/>
+      <c r="GG44" s="10"/>
+      <c r="GH44" s="10"/>
+      <c r="GI44" s="10"/>
+      <c r="GJ44" s="10"/>
+      <c r="GK44" s="10"/>
+      <c r="GL44" s="10"/>
+      <c r="GM44" s="10"/>
+      <c r="GN44" s="10"/>
+      <c r="GO44" s="10"/>
+      <c r="GP44" s="10"/>
+      <c r="GQ44" s="10"/>
+      <c r="GR44" s="10"/>
+      <c r="GS44" s="10"/>
+      <c r="GT44" s="10"/>
+      <c r="GU44" s="10"/>
+      <c r="GV44" s="10"/>
+      <c r="GW44" s="10"/>
+      <c r="GX44" s="10"/>
+      <c r="GY44" s="10"/>
+      <c r="GZ44" s="10"/>
+      <c r="HA44" s="10"/>
+      <c r="HB44" s="10"/>
+      <c r="HC44" s="10"/>
+      <c r="HD44" s="10"/>
+      <c r="HE44" s="10"/>
+      <c r="HF44" s="10"/>
+      <c r="HG44" s="10"/>
+      <c r="HH44" s="10"/>
+      <c r="HI44" s="10"/>
+      <c r="HJ44" s="10"/>
+      <c r="HK44" s="10"/>
+      <c r="HL44" s="10"/>
+      <c r="HM44" s="10"/>
+      <c r="HN44" s="10"/>
+      <c r="HO44" s="10"/>
+      <c r="HP44" s="10"/>
+      <c r="HQ44" s="10"/>
+      <c r="HR44" s="10"/>
+      <c r="HS44" s="10"/>
+      <c r="HT44" s="10"/>
+      <c r="HU44" s="10"/>
+      <c r="HV44" s="10"/>
+      <c r="HW44" s="10"/>
+      <c r="HX44" s="10"/>
+      <c r="HY44" s="10"/>
+      <c r="HZ44" s="10"/>
+      <c r="IA44" s="10"/>
+      <c r="IB44" s="10"/>
+      <c r="IC44" s="10"/>
+      <c r="ID44" s="10"/>
+      <c r="IE44" s="10"/>
+      <c r="IF44" s="10"/>
+      <c r="IG44" s="10"/>
+      <c r="IH44" s="10"/>
+      <c r="II44" s="10"/>
+      <c r="IJ44" s="10"/>
+      <c r="IK44" s="10"/>
+      <c r="IL44" s="10"/>
+      <c r="IM44" s="10"/>
+      <c r="IN44" s="10"/>
+      <c r="IO44" s="10"/>
+      <c r="IP44" s="10"/>
+      <c r="IQ44" s="10"/>
+      <c r="IR44" s="10"/>
+      <c r="IS44" s="10"/>
+      <c r="IT44" s="10"/>
+      <c r="IU44" s="10"/>
+      <c r="IV44" s="10"/>
+      <c r="IW44" s="10"/>
+      <c r="IX44" s="10"/>
+      <c r="IY44" s="10"/>
+      <c r="IZ44" s="10"/>
+      <c r="JA44" s="10"/>
+      <c r="JB44" s="10"/>
+      <c r="JC44" s="10"/>
+      <c r="JD44" s="10"/>
+      <c r="JE44" s="10"/>
+      <c r="JF44" s="10"/>
+      <c r="JG44" s="10"/>
+      <c r="JH44" s="10"/>
+      <c r="JI44" s="10"/>
+      <c r="JJ44" s="10"/>
+      <c r="JK44" s="10"/>
+      <c r="JL44" s="10"/>
+      <c r="JM44" s="10"/>
+      <c r="JN44" s="10"/>
+      <c r="JO44" s="10"/>
+      <c r="JP44" s="10"/>
+      <c r="JQ44" s="10"/>
+      <c r="JR44" s="10"/>
+      <c r="JS44" s="10"/>
+      <c r="JT44" s="10"/>
+      <c r="JU44" s="10"/>
+      <c r="JV44" s="10"/>
+      <c r="JW44" s="10"/>
+      <c r="JX44" s="10"/>
+      <c r="JY44" s="10"/>
+      <c r="JZ44" s="10"/>
+      <c r="KA44" s="10"/>
+      <c r="KB44" s="10"/>
+      <c r="KC44" s="10"/>
+      <c r="KD44" s="10"/>
+      <c r="KE44" s="10"/>
+      <c r="KF44" s="10"/>
+      <c r="KG44" s="10"/>
+      <c r="KH44" s="10"/>
+      <c r="KI44" s="10"/>
+      <c r="KJ44" s="10"/>
+      <c r="KK44" s="10"/>
+      <c r="KL44" s="10"/>
+      <c r="KM44" s="10"/>
+      <c r="KN44" s="10"/>
+      <c r="KO44" s="10"/>
+      <c r="KP44" s="10"/>
+      <c r="KQ44" s="10"/>
+      <c r="KR44" s="10"/>
+      <c r="KS44" s="10"/>
+      <c r="KT44" s="10"/>
+      <c r="KU44" s="10"/>
+      <c r="KV44" s="10"/>
+      <c r="KW44" s="10"/>
+      <c r="KX44" s="10"/>
+      <c r="KY44" s="10"/>
+      <c r="KZ44" s="10"/>
+      <c r="LA44" s="10"/>
+      <c r="LB44" s="10"/>
+      <c r="LC44" s="10"/>
+      <c r="LD44" s="10"/>
+      <c r="LE44" s="10"/>
+      <c r="LF44" s="10"/>
+      <c r="LG44" s="10"/>
+      <c r="LH44" s="10"/>
+      <c r="LI44" s="10"/>
+      <c r="LJ44" s="10"/>
+      <c r="LK44" s="10"/>
+      <c r="LL44" s="10"/>
+      <c r="LM44" s="10"/>
+      <c r="LN44" s="10"/>
+      <c r="LO44" s="10"/>
+      <c r="LP44" s="10"/>
+      <c r="LQ44" s="10"/>
+      <c r="LR44" s="10"/>
+      <c r="LS44" s="10"/>
+      <c r="LT44" s="10"/>
+      <c r="LU44" s="10"/>
+      <c r="LV44" s="10"/>
+      <c r="LW44" s="10"/>
+      <c r="LX44" s="10"/>
+      <c r="LY44" s="10"/>
+      <c r="LZ44" s="10"/>
+      <c r="MA44" s="10"/>
+      <c r="MB44" s="10"/>
+      <c r="MC44" s="10"/>
+      <c r="MD44" s="10"/>
+      <c r="ME44" s="10"/>
+      <c r="MF44" s="10"/>
+      <c r="MG44" s="10"/>
+      <c r="MH44" s="10"/>
+      <c r="MI44" s="10"/>
+      <c r="MJ44" s="10"/>
+      <c r="MK44" s="10"/>
+      <c r="ML44" s="10"/>
+      <c r="MM44" s="10"/>
+      <c r="MN44" s="10"/>
+      <c r="MO44" s="10"/>
+      <c r="MP44" s="10"/>
+      <c r="MQ44" s="10"/>
+      <c r="MR44" s="10"/>
+      <c r="MS44" s="10"/>
+      <c r="MT44" s="10"/>
+      <c r="MU44" s="10"/>
+      <c r="MV44" s="10"/>
+      <c r="MW44" s="10"/>
+      <c r="MX44" s="10"/>
+      <c r="MY44" s="10"/>
+      <c r="MZ44" s="10"/>
+      <c r="NA44" s="10"/>
+      <c r="NB44" s="10"/>
+      <c r="NC44" s="10"/>
+      <c r="ND44" s="10"/>
+      <c r="NE44" s="10"/>
+      <c r="NF44" s="10"/>
+      <c r="NG44" s="10"/>
+      <c r="NH44" s="10"/>
+      <c r="NI44" s="10"/>
+      <c r="NJ44" s="10"/>
+      <c r="NK44" s="10"/>
+      <c r="NL44" s="10"/>
+      <c r="NM44" s="10"/>
+      <c r="NN44" s="10"/>
+      <c r="NO44" s="10"/>
+      <c r="NP44" s="10"/>
+      <c r="NQ44" s="10"/>
+      <c r="NR44" s="10"/>
+      <c r="NS44" s="10"/>
+      <c r="NT44" s="10"/>
+      <c r="NU44" s="10"/>
+      <c r="NV44" s="10"/>
+      <c r="NW44" s="10"/>
+      <c r="NX44" s="10"/>
+      <c r="NY44" s="10"/>
+      <c r="NZ44" s="10"/>
+      <c r="OA44" s="10"/>
+      <c r="OB44" s="10"/>
+      <c r="OC44" s="10"/>
+      <c r="OD44" s="10"/>
+      <c r="OE44" s="10"/>
+      <c r="OF44" s="10"/>
+      <c r="OG44" s="10"/>
+      <c r="OH44" s="10"/>
+      <c r="OI44" s="10"/>
+      <c r="OJ44" s="10"/>
+      <c r="OK44" s="10"/>
+      <c r="OL44" s="10"/>
+      <c r="OM44" s="10"/>
+      <c r="ON44" s="10"/>
+      <c r="OO44" s="10"/>
+      <c r="OP44" s="10"/>
+      <c r="OQ44" s="10"/>
+      <c r="OR44" s="10"/>
+      <c r="OS44" s="10"/>
+      <c r="OT44" s="10"/>
+      <c r="OU44" s="10"/>
+      <c r="OV44" s="10"/>
+      <c r="OW44" s="10"/>
+      <c r="OX44" s="10"/>
+      <c r="OY44" s="10"/>
+      <c r="OZ44" s="10"/>
+      <c r="PA44" s="10"/>
+      <c r="PB44" s="10"/>
+      <c r="PC44" s="10"/>
+      <c r="PD44" s="10"/>
+      <c r="PE44" s="10"/>
+      <c r="PF44" s="10"/>
+      <c r="PG44" s="10"/>
+      <c r="PH44" s="10"/>
+      <c r="PI44" s="10"/>
+      <c r="PJ44" s="10"/>
+      <c r="PK44" s="10"/>
+      <c r="PL44" s="10"/>
+      <c r="PM44" s="10"/>
+      <c r="PN44" s="10"/>
+      <c r="PO44" s="10"/>
+      <c r="PP44" s="10"/>
+      <c r="PQ44" s="10"/>
+      <c r="PR44" s="10"/>
+      <c r="PS44" s="10"/>
+      <c r="PT44" s="10"/>
+      <c r="PU44" s="10"/>
+      <c r="PV44" s="10"/>
+      <c r="PW44" s="10"/>
+      <c r="PX44" s="10"/>
+      <c r="PY44" s="10"/>
+      <c r="PZ44" s="10"/>
+      <c r="QA44" s="10"/>
+      <c r="QB44" s="10"/>
+      <c r="QC44" s="10"/>
+      <c r="QD44" s="10"/>
+      <c r="QE44" s="10"/>
+      <c r="QF44" s="10"/>
+      <c r="QG44" s="10"/>
+      <c r="QH44" s="10"/>
+      <c r="QI44" s="10"/>
+      <c r="QJ44" s="10"/>
+      <c r="QK44" s="10"/>
+      <c r="QL44" s="10"/>
+      <c r="QM44" s="10"/>
+      <c r="QN44" s="10"/>
+      <c r="QO44" s="10"/>
+      <c r="QP44" s="10"/>
+      <c r="QQ44" s="10"/>
+      <c r="QR44" s="10"/>
+      <c r="QS44" s="10"/>
+      <c r="QT44" s="10"/>
+      <c r="QU44" s="10"/>
+      <c r="QV44" s="10"/>
+      <c r="QW44" s="10"/>
+      <c r="QX44" s="10"/>
+      <c r="QY44" s="10"/>
+      <c r="QZ44" s="10"/>
+      <c r="RA44" s="10"/>
+      <c r="RB44" s="10"/>
+      <c r="RC44" s="10"/>
+      <c r="RD44" s="10"/>
+      <c r="RE44" s="10"/>
+      <c r="RF44" s="10"/>
+      <c r="RG44" s="10"/>
+      <c r="RH44" s="10"/>
+      <c r="RI44" s="10"/>
+      <c r="RJ44" s="10"/>
+      <c r="RK44" s="10"/>
+      <c r="RL44" s="10"/>
+      <c r="RM44" s="10"/>
+      <c r="RN44" s="10"/>
+      <c r="RO44" s="10"/>
+      <c r="RP44" s="10"/>
+      <c r="RQ44" s="10"/>
+      <c r="RR44" s="10"/>
+      <c r="RS44" s="10"/>
+      <c r="RT44" s="10"/>
+      <c r="RU44" s="10"/>
+      <c r="RV44" s="10"/>
+      <c r="RW44" s="10"/>
+      <c r="RX44" s="10"/>
+      <c r="RY44" s="10"/>
+      <c r="RZ44" s="10"/>
+      <c r="SA44" s="10"/>
+      <c r="SB44" s="10"/>
+      <c r="SC44" s="10"/>
+      <c r="SD44" s="10"/>
+      <c r="SE44" s="10"/>
+      <c r="SF44" s="10"/>
+      <c r="SG44" s="10"/>
+      <c r="SH44" s="10"/>
+      <c r="SI44" s="10"/>
+      <c r="SJ44" s="10"/>
+      <c r="SK44" s="10"/>
+      <c r="SL44" s="10"/>
+      <c r="SM44" s="10"/>
+      <c r="SN44" s="10"/>
+      <c r="SO44" s="10"/>
+      <c r="SP44" s="10"/>
+      <c r="SQ44" s="10"/>
+      <c r="SR44" s="10"/>
+      <c r="SS44" s="10"/>
+      <c r="ST44" s="10"/>
+      <c r="SU44" s="10"/>
+      <c r="SV44" s="10"/>
+      <c r="SW44" s="10"/>
+      <c r="SX44" s="10"/>
+      <c r="SY44" s="10"/>
+      <c r="SZ44" s="10"/>
+      <c r="TA44" s="10"/>
+      <c r="TB44" s="10"/>
+      <c r="TC44" s="10"/>
+      <c r="TD44" s="10"/>
+      <c r="TE44" s="10"/>
+      <c r="TF44" s="10"/>
+      <c r="TG44" s="10"/>
+      <c r="TH44" s="10"/>
+      <c r="TI44" s="10"/>
+      <c r="TJ44" s="10"/>
+      <c r="TK44" s="10"/>
+      <c r="TL44" s="10"/>
+      <c r="TM44" s="10"/>
+      <c r="TN44" s="10"/>
+      <c r="TO44" s="10"/>
+      <c r="TP44" s="10"/>
+      <c r="TQ44" s="10"/>
+      <c r="TR44" s="10"/>
+      <c r="TS44" s="10"/>
+      <c r="TT44" s="10"/>
+      <c r="TU44" s="10"/>
+      <c r="TV44" s="10"/>
+      <c r="TW44" s="10"/>
+      <c r="TX44" s="10"/>
+      <c r="TY44" s="10"/>
+      <c r="TZ44" s="10"/>
+      <c r="UA44" s="10"/>
+      <c r="UB44" s="10"/>
+      <c r="UC44" s="10"/>
+      <c r="UD44" s="10"/>
+      <c r="UE44" s="10"/>
+      <c r="UF44" s="10"/>
+      <c r="UG44" s="10"/>
+      <c r="UH44" s="10"/>
+      <c r="UI44" s="10"/>
+      <c r="UJ44" s="10"/>
+      <c r="UK44" s="10"/>
+      <c r="UL44" s="10"/>
+      <c r="UM44" s="10"/>
+      <c r="UN44" s="10"/>
+      <c r="UO44" s="10"/>
+      <c r="UP44" s="10"/>
+      <c r="UQ44" s="10"/>
+      <c r="UR44" s="10"/>
+      <c r="US44" s="10"/>
+      <c r="UT44" s="10"/>
+      <c r="UU44" s="10"/>
+      <c r="UV44" s="10"/>
+      <c r="UW44" s="10"/>
+      <c r="UX44" s="10"/>
+      <c r="UY44" s="10"/>
+      <c r="UZ44" s="10"/>
+      <c r="VA44" s="10"/>
+      <c r="VB44" s="10"/>
+      <c r="VC44" s="10"/>
+      <c r="VD44" s="10"/>
+      <c r="VE44" s="10"/>
+      <c r="VF44" s="10"/>
+      <c r="VG44" s="10"/>
+      <c r="VH44" s="10"/>
+      <c r="VI44" s="10"/>
+      <c r="VJ44" s="10"/>
+      <c r="VK44" s="10"/>
+      <c r="VL44" s="10"/>
+      <c r="VM44" s="10"/>
+      <c r="VN44" s="10"/>
+      <c r="VO44" s="10"/>
+      <c r="VP44" s="10"/>
+      <c r="VQ44" s="10"/>
+      <c r="VR44" s="10"/>
+      <c r="VS44" s="10"/>
+      <c r="VT44" s="10"/>
+      <c r="VU44" s="10"/>
+      <c r="VV44" s="10"/>
+      <c r="VW44" s="10"/>
+      <c r="VX44" s="10"/>
+      <c r="VY44" s="10"/>
+      <c r="VZ44" s="10"/>
+      <c r="WA44" s="10"/>
+      <c r="WB44" s="10"/>
+      <c r="WC44" s="10"/>
+      <c r="WD44" s="10"/>
+      <c r="WE44" s="10"/>
+      <c r="WF44" s="10"/>
+      <c r="WG44" s="10"/>
+      <c r="WH44" s="10"/>
+      <c r="WI44" s="10"/>
+      <c r="WJ44" s="10"/>
+      <c r="WK44" s="10"/>
+      <c r="WL44" s="10"/>
+      <c r="WM44" s="10"/>
+      <c r="WN44" s="10"/>
+      <c r="WO44" s="10"/>
+      <c r="WP44" s="10"/>
+      <c r="WQ44" s="10"/>
+      <c r="WR44" s="10"/>
+      <c r="WS44" s="10"/>
+      <c r="WT44" s="10"/>
+      <c r="WU44" s="10"/>
+      <c r="WV44" s="10"/>
+      <c r="WW44" s="10"/>
+      <c r="WX44" s="10"/>
+      <c r="WY44" s="10"/>
+      <c r="WZ44" s="10"/>
+      <c r="XA44" s="10"/>
+      <c r="XB44" s="10"/>
+      <c r="XC44" s="10"/>
+      <c r="XD44" s="10"/>
+      <c r="XE44" s="10"/>
+      <c r="XF44" s="10"/>
+      <c r="XG44" s="10"/>
+      <c r="XH44" s="10"/>
+      <c r="XI44" s="10"/>
+      <c r="XJ44" s="10"/>
+      <c r="XK44" s="10"/>
+      <c r="XL44" s="10"/>
+      <c r="XM44" s="10"/>
+      <c r="XN44" s="10"/>
+      <c r="XO44" s="10"/>
+      <c r="XP44" s="10"/>
+      <c r="XQ44" s="10"/>
+      <c r="XR44" s="10"/>
+      <c r="XS44" s="10"/>
+      <c r="XT44" s="10"/>
+      <c r="XU44" s="10"/>
+      <c r="XV44" s="10"/>
+      <c r="XW44" s="10"/>
+      <c r="XX44" s="10"/>
+      <c r="XY44" s="10"/>
+      <c r="XZ44" s="10"/>
+      <c r="YA44" s="10"/>
+      <c r="YB44" s="10"/>
+      <c r="YC44" s="10"/>
+      <c r="YD44" s="10"/>
+      <c r="YE44" s="10"/>
+      <c r="YF44" s="10"/>
+      <c r="YG44" s="10"/>
+      <c r="YH44" s="10"/>
+      <c r="YI44" s="10"/>
+      <c r="YJ44" s="10"/>
+      <c r="YK44" s="10"/>
+      <c r="YL44" s="10"/>
+      <c r="YM44" s="10"/>
+      <c r="YN44" s="10"/>
+      <c r="YO44" s="10"/>
+      <c r="YP44" s="10"/>
+      <c r="YQ44" s="10"/>
+      <c r="YR44" s="10"/>
+      <c r="YS44" s="10"/>
+      <c r="YT44" s="10"/>
+      <c r="YU44" s="10"/>
+      <c r="YV44" s="10"/>
+      <c r="YW44" s="10"/>
+      <c r="YX44" s="10"/>
+      <c r="YY44" s="10"/>
+      <c r="YZ44" s="10"/>
+      <c r="ZA44" s="10"/>
+      <c r="ZB44" s="10"/>
+      <c r="ZC44" s="10"/>
+      <c r="ZD44" s="10"/>
+      <c r="ZE44" s="10"/>
+      <c r="ZF44" s="10"/>
+      <c r="ZG44" s="10"/>
+      <c r="ZH44" s="10"/>
+      <c r="ZI44" s="10"/>
+      <c r="ZJ44" s="10"/>
+      <c r="ZK44" s="10"/>
+      <c r="ZL44" s="10"/>
+      <c r="ZM44" s="10"/>
+      <c r="ZN44" s="10"/>
+      <c r="ZO44" s="10"/>
+      <c r="ZP44" s="10"/>
+      <c r="ZQ44" s="10"/>
+      <c r="ZR44" s="10"/>
+      <c r="ZS44" s="10"/>
+      <c r="ZT44" s="10"/>
+      <c r="ZU44" s="10"/>
+      <c r="ZV44" s="10"/>
+      <c r="ZW44" s="10"/>
+      <c r="ZX44" s="10"/>
+      <c r="ZY44" s="10"/>
+      <c r="ZZ44" s="10"/>
+      <c r="AAA44" s="10"/>
+      <c r="AAB44" s="10"/>
+      <c r="AAC44" s="10"/>
+      <c r="AAD44" s="10"/>
+      <c r="AAE44" s="10"/>
+      <c r="AAF44" s="10"/>
+      <c r="AAG44" s="10"/>
+      <c r="AAH44" s="10"/>
+      <c r="AAI44" s="10"/>
+      <c r="AAJ44" s="10"/>
+      <c r="AAK44" s="10"/>
+      <c r="AAL44" s="10"/>
+      <c r="AAM44" s="10"/>
+      <c r="AAN44" s="10"/>
+      <c r="AAO44" s="10"/>
+      <c r="AAP44" s="10"/>
+      <c r="AAQ44" s="10"/>
+      <c r="AAR44" s="10"/>
+      <c r="AAS44" s="10"/>
+      <c r="AAT44" s="10"/>
+      <c r="AAU44" s="10"/>
+      <c r="AAV44" s="10"/>
+      <c r="AAW44" s="10"/>
+      <c r="AAX44" s="10"/>
+      <c r="AAY44" s="10"/>
+      <c r="AAZ44" s="10"/>
+      <c r="ABA44" s="10"/>
+      <c r="ABB44" s="10"/>
+      <c r="ABC44" s="10"/>
+      <c r="ABD44" s="10"/>
+      <c r="ABE44" s="10"/>
+      <c r="ABF44" s="10"/>
+      <c r="ABG44" s="10"/>
+      <c r="ABH44" s="10"/>
+      <c r="ABI44" s="10"/>
+      <c r="ABJ44" s="10"/>
+      <c r="ABK44" s="10"/>
+      <c r="ABL44" s="10"/>
+      <c r="ABM44" s="10"/>
+      <c r="ABN44" s="10"/>
+      <c r="ABO44" s="10"/>
+      <c r="ABP44" s="10"/>
+      <c r="ABQ44" s="10"/>
+      <c r="ABR44" s="10"/>
+      <c r="ABS44" s="10"/>
+      <c r="ABT44" s="10"/>
+      <c r="ABU44" s="10"/>
+      <c r="ABV44" s="10"/>
+      <c r="ABW44" s="10"/>
+      <c r="ABX44" s="10"/>
+      <c r="ABY44" s="10"/>
+      <c r="ABZ44" s="10"/>
+      <c r="ACA44" s="10"/>
+      <c r="ACB44" s="10"/>
+      <c r="ACC44" s="10"/>
+      <c r="ACD44" s="10"/>
+      <c r="ACE44" s="10"/>
+      <c r="ACF44" s="10"/>
+      <c r="ACG44" s="10"/>
+      <c r="ACH44" s="10"/>
+      <c r="ACI44" s="10"/>
+      <c r="ACJ44" s="10"/>
+      <c r="ACK44" s="10"/>
+      <c r="ACL44" s="10"/>
+      <c r="ACM44" s="10"/>
+      <c r="ACN44" s="10"/>
+      <c r="ACO44" s="10"/>
+      <c r="ACP44" s="10"/>
+      <c r="ACQ44" s="10"/>
+      <c r="ACR44" s="10"/>
+      <c r="ACS44" s="10"/>
+      <c r="ACT44" s="10"/>
+      <c r="ACU44" s="10"/>
+      <c r="ACV44" s="10"/>
+      <c r="ACW44" s="10"/>
+      <c r="ACX44" s="10"/>
+      <c r="ACY44" s="10"/>
+      <c r="ACZ44" s="10"/>
+      <c r="ADA44" s="10"/>
+      <c r="ADB44" s="10"/>
+      <c r="ADC44" s="10"/>
+      <c r="ADD44" s="10"/>
+      <c r="ADE44" s="10"/>
+      <c r="ADF44" s="10"/>
+      <c r="ADG44" s="10"/>
+      <c r="ADH44" s="10"/>
+      <c r="ADI44" s="10"/>
+      <c r="ADJ44" s="10"/>
+      <c r="ADK44" s="10"/>
+      <c r="ADL44" s="10"/>
+      <c r="ADM44" s="10"/>
+      <c r="ADN44" s="10"/>
+      <c r="ADO44" s="10"/>
+      <c r="ADP44" s="10"/>
+      <c r="ADQ44" s="10"/>
+      <c r="ADR44" s="10"/>
+      <c r="ADS44" s="10"/>
+      <c r="ADT44" s="10"/>
+      <c r="ADU44" s="10"/>
+      <c r="ADV44" s="10"/>
+      <c r="ADW44" s="10"/>
+      <c r="ADX44" s="10"/>
+      <c r="ADY44" s="10"/>
+      <c r="ADZ44" s="10"/>
+      <c r="AEA44" s="10"/>
+      <c r="AEB44" s="10"/>
+      <c r="AEC44" s="10"/>
+      <c r="AED44" s="10"/>
+      <c r="AEE44" s="10"/>
+      <c r="AEF44" s="10"/>
+      <c r="AEG44" s="10"/>
+      <c r="AEH44" s="10"/>
+      <c r="AEI44" s="10"/>
+      <c r="AEJ44" s="10"/>
+      <c r="AEK44" s="10"/>
+      <c r="AEL44" s="10"/>
+      <c r="AEM44" s="10"/>
+      <c r="AEN44" s="10"/>
+      <c r="AEO44" s="10"/>
+      <c r="AEP44" s="10"/>
+      <c r="AEQ44" s="10"/>
+      <c r="AER44" s="10"/>
+      <c r="AES44" s="10"/>
+      <c r="AET44" s="10"/>
+      <c r="AEU44" s="10"/>
+      <c r="AEV44" s="10"/>
+      <c r="AEW44" s="10"/>
+      <c r="AEX44" s="10"/>
+      <c r="AEY44" s="10"/>
+      <c r="AEZ44" s="10"/>
+      <c r="AFA44" s="10"/>
+      <c r="AFB44" s="10"/>
+      <c r="AFC44" s="10"/>
+      <c r="AFD44" s="10"/>
+      <c r="AFE44" s="10"/>
+      <c r="AFF44" s="10"/>
+      <c r="AFG44" s="10"/>
+      <c r="AFH44" s="10"/>
+      <c r="AFI44" s="10"/>
+      <c r="AFJ44" s="10"/>
+      <c r="AFK44" s="10"/>
+      <c r="AFL44" s="10"/>
+      <c r="AFM44" s="10"/>
+      <c r="AFN44" s="10"/>
+      <c r="AFO44" s="10"/>
+      <c r="AFP44" s="10"/>
+      <c r="AFQ44" s="10"/>
+      <c r="AFR44" s="10"/>
+      <c r="AFS44" s="10"/>
+      <c r="AFT44" s="10"/>
+      <c r="AFU44" s="10"/>
+      <c r="AFV44" s="10"/>
+      <c r="AFW44" s="10"/>
+      <c r="AFX44" s="10"/>
+      <c r="AFY44" s="10"/>
+      <c r="AFZ44" s="10"/>
+      <c r="AGA44" s="10"/>
+      <c r="AGB44" s="10"/>
+      <c r="AGC44" s="10"/>
+      <c r="AGD44" s="10"/>
+      <c r="AGE44" s="10"/>
+      <c r="AGF44" s="10"/>
+      <c r="AGG44" s="10"/>
+      <c r="AGH44" s="10"/>
+      <c r="AGI44" s="10"/>
+      <c r="AGJ44" s="10"/>
+      <c r="AGK44" s="10"/>
+      <c r="AGL44" s="10"/>
+      <c r="AGM44" s="10"/>
+      <c r="AGN44" s="10"/>
+      <c r="AGO44" s="10"/>
+      <c r="AGP44" s="10"/>
+      <c r="AGQ44" s="10"/>
+      <c r="AGR44" s="10"/>
+      <c r="AGS44" s="10"/>
+      <c r="AGT44" s="10"/>
+      <c r="AGU44" s="10"/>
+      <c r="AGV44" s="10"/>
+      <c r="AGW44" s="10"/>
+      <c r="AGX44" s="10"/>
+      <c r="AGY44" s="10"/>
+      <c r="AGZ44" s="10"/>
+      <c r="AHA44" s="10"/>
+      <c r="AHB44" s="10"/>
+      <c r="AHC44" s="10"/>
+      <c r="AHD44" s="10"/>
+      <c r="AHE44" s="10"/>
+      <c r="AHF44" s="10"/>
+      <c r="AHG44" s="10"/>
+      <c r="AHH44" s="10"/>
+      <c r="AHI44" s="10"/>
+      <c r="AHJ44" s="10"/>
+      <c r="AHK44" s="10"/>
+      <c r="AHL44" s="10"/>
+      <c r="AHM44" s="10"/>
+      <c r="AHN44" s="10"/>
+      <c r="AHO44" s="10"/>
+      <c r="AHP44" s="10"/>
+      <c r="AHQ44" s="10"/>
+      <c r="AHR44" s="10"/>
+      <c r="AHS44" s="10"/>
+      <c r="AHT44" s="10"/>
+      <c r="AHU44" s="10"/>
+      <c r="AHV44" s="10"/>
+      <c r="AHW44" s="10"/>
+      <c r="AHX44" s="10"/>
+      <c r="AHY44" s="10"/>
+      <c r="AHZ44" s="10"/>
+      <c r="AIA44" s="10"/>
+      <c r="AIB44" s="10"/>
+      <c r="AIC44" s="10"/>
+      <c r="AID44" s="10"/>
+      <c r="AIE44" s="10"/>
+      <c r="AIF44" s="10"/>
+      <c r="AIG44" s="10"/>
+      <c r="AIH44" s="10"/>
+      <c r="AII44" s="10"/>
+      <c r="AIJ44" s="10"/>
+      <c r="AIK44" s="10"/>
+      <c r="AIL44" s="10"/>
+      <c r="AIM44" s="10"/>
+      <c r="AIN44" s="10"/>
+      <c r="AIO44" s="10"/>
+      <c r="AIP44" s="10"/>
+      <c r="AIQ44" s="10"/>
+      <c r="AIR44" s="10"/>
+      <c r="AIS44" s="10"/>
+      <c r="AIT44" s="10"/>
+      <c r="AIU44" s="10"/>
+      <c r="AIV44" s="10"/>
+      <c r="AIW44" s="10"/>
+      <c r="AIX44" s="10"/>
+      <c r="AIY44" s="10"/>
+      <c r="AIZ44" s="10"/>
+      <c r="AJA44" s="10"/>
+      <c r="AJB44" s="10"/>
+      <c r="AJC44" s="10"/>
+      <c r="AJD44" s="10"/>
+      <c r="AJE44" s="10"/>
+      <c r="AJF44" s="10"/>
+      <c r="AJG44" s="10"/>
+      <c r="AJH44" s="10"/>
+      <c r="AJI44" s="10"/>
+      <c r="AJJ44" s="10"/>
+      <c r="AJK44" s="10"/>
+      <c r="AJL44" s="10"/>
+      <c r="AJM44" s="10"/>
+      <c r="AJN44" s="10"/>
+      <c r="AJO44" s="10"/>
+      <c r="AJP44" s="10"/>
+      <c r="AJQ44" s="10"/>
+      <c r="AJR44" s="10"/>
+      <c r="AJS44" s="10"/>
+      <c r="AJT44" s="10"/>
+      <c r="AJU44" s="10"/>
+      <c r="AJV44" s="10"/>
+      <c r="AJW44" s="10"/>
+      <c r="AJX44" s="10"/>
+      <c r="AJY44" s="10"/>
+      <c r="AJZ44" s="10"/>
+      <c r="AKA44" s="10"/>
+      <c r="AKB44" s="10"/>
+      <c r="AKC44" s="10"/>
+      <c r="AKD44" s="10"/>
+      <c r="AKE44" s="10"/>
+      <c r="AKF44" s="10"/>
+      <c r="AKG44" s="10"/>
+      <c r="AKH44" s="10"/>
+      <c r="AKI44" s="10"/>
+      <c r="AKJ44" s="10"/>
+      <c r="AKK44" s="10"/>
+      <c r="AKL44" s="10"/>
+      <c r="AKM44" s="10"/>
+      <c r="AKN44" s="10"/>
+      <c r="AKO44" s="10"/>
+      <c r="AKP44" s="10"/>
+      <c r="AKQ44" s="10"/>
+      <c r="AKR44" s="10"/>
+      <c r="AKS44" s="10"/>
+      <c r="AKT44" s="10"/>
+      <c r="AKU44" s="10"/>
+      <c r="AKV44" s="10"/>
+      <c r="AKW44" s="10"/>
+      <c r="AKX44" s="10"/>
+      <c r="AKY44" s="10"/>
+      <c r="AKZ44" s="10"/>
+      <c r="ALA44" s="10"/>
+      <c r="ALB44" s="10"/>
+      <c r="ALC44" s="10"/>
+      <c r="ALD44" s="10"/>
+      <c r="ALE44" s="10"/>
+      <c r="ALF44" s="10"/>
+      <c r="ALG44" s="10"/>
+      <c r="ALH44" s="10"/>
+      <c r="ALI44" s="10"/>
+      <c r="ALJ44" s="10"/>
+      <c r="ALK44" s="10"/>
+      <c r="ALL44" s="10"/>
+      <c r="ALM44" s="10"/>
+      <c r="ALN44" s="10"/>
+      <c r="ALO44" s="10"/>
+      <c r="ALP44" s="10"/>
+      <c r="ALQ44" s="10"/>
+      <c r="ALR44" s="10"/>
+      <c r="ALS44" s="10"/>
+      <c r="ALT44" s="10"/>
+      <c r="ALU44" s="10"/>
+      <c r="ALV44" s="10"/>
+      <c r="ALW44" s="10"/>
+      <c r="ALX44" s="10"/>
+      <c r="ALY44" s="10"/>
+      <c r="ALZ44" s="10"/>
+      <c r="AMA44" s="10"/>
+      <c r="AMB44" s="10"/>
+      <c r="AMC44" s="10"/>
+      <c r="AMD44" s="10"/>
+      <c r="AME44" s="10"/>
+      <c r="AMF44" s="10"/>
+      <c r="AMG44" s="10"/>
+      <c r="AMH44" s="10"/>
+      <c r="AMI44" s="10"/>
+      <c r="AMJ44" s="10"/>
+      <c r="AMK44" s="10"/>
+    </row>
+    <row r="45" spans="1:1025" s="12" customFormat="1">
+      <c r="A45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="25">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="25">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="10"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="10"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="10"/>
+      <c r="BF45" s="10"/>
+      <c r="BG45" s="10"/>
+      <c r="BH45" s="10"/>
+      <c r="BI45" s="10"/>
+      <c r="BJ45" s="10"/>
+      <c r="BK45" s="10"/>
+      <c r="BL45" s="10"/>
+      <c r="BM45" s="10"/>
+      <c r="BN45" s="10"/>
+      <c r="BO45" s="10"/>
+      <c r="BP45" s="10"/>
+      <c r="BQ45" s="10"/>
+      <c r="BR45" s="10"/>
+      <c r="BS45" s="10"/>
+      <c r="BT45" s="10"/>
+      <c r="BU45" s="10"/>
+      <c r="BV45" s="10"/>
+      <c r="BW45" s="10"/>
+      <c r="BX45" s="10"/>
+      <c r="BY45" s="10"/>
+      <c r="BZ45" s="10"/>
+      <c r="CA45" s="10"/>
+      <c r="CB45" s="10"/>
+      <c r="CC45" s="10"/>
+      <c r="CD45" s="10"/>
+      <c r="CE45" s="10"/>
+      <c r="CF45" s="10"/>
+      <c r="CG45" s="10"/>
+      <c r="CH45" s="10"/>
+      <c r="CI45" s="10"/>
+      <c r="CJ45" s="10"/>
+      <c r="CK45" s="10"/>
+      <c r="CL45" s="10"/>
+      <c r="CM45" s="10"/>
+      <c r="CN45" s="10"/>
+      <c r="CO45" s="10"/>
+      <c r="CP45" s="10"/>
+      <c r="CQ45" s="10"/>
+      <c r="CR45" s="10"/>
+      <c r="CS45" s="10"/>
+      <c r="CT45" s="10"/>
+      <c r="CU45" s="10"/>
+      <c r="CV45" s="10"/>
+      <c r="CW45" s="10"/>
+      <c r="CX45" s="10"/>
+      <c r="CY45" s="10"/>
+      <c r="CZ45" s="10"/>
+      <c r="DA45" s="10"/>
+      <c r="DB45" s="10"/>
+      <c r="DC45" s="10"/>
+      <c r="DD45" s="10"/>
+      <c r="DE45" s="10"/>
+      <c r="DF45" s="10"/>
+      <c r="DG45" s="10"/>
+      <c r="DH45" s="10"/>
+      <c r="DI45" s="10"/>
+      <c r="DJ45" s="10"/>
+      <c r="DK45" s="10"/>
+      <c r="DL45" s="10"/>
+      <c r="DM45" s="10"/>
+      <c r="DN45" s="10"/>
+      <c r="DO45" s="10"/>
+      <c r="DP45" s="10"/>
+      <c r="DQ45" s="10"/>
+      <c r="DR45" s="10"/>
+      <c r="DS45" s="10"/>
+      <c r="DT45" s="10"/>
+      <c r="DU45" s="10"/>
+      <c r="DV45" s="10"/>
+      <c r="DW45" s="10"/>
+      <c r="DX45" s="10"/>
+      <c r="DY45" s="10"/>
+      <c r="DZ45" s="10"/>
+      <c r="EA45" s="10"/>
+      <c r="EB45" s="10"/>
+      <c r="EC45" s="10"/>
+      <c r="ED45" s="10"/>
+      <c r="EE45" s="10"/>
+      <c r="EF45" s="10"/>
+      <c r="EG45" s="10"/>
+      <c r="EH45" s="10"/>
+      <c r="EI45" s="10"/>
+      <c r="EJ45" s="10"/>
+      <c r="EK45" s="10"/>
+      <c r="EL45" s="10"/>
+      <c r="EM45" s="10"/>
+      <c r="EN45" s="10"/>
+      <c r="EO45" s="10"/>
+      <c r="EP45" s="10"/>
+      <c r="EQ45" s="10"/>
+      <c r="ER45" s="10"/>
+      <c r="ES45" s="10"/>
+      <c r="ET45" s="10"/>
+      <c r="EU45" s="10"/>
+      <c r="EV45" s="10"/>
+      <c r="EW45" s="10"/>
+      <c r="EX45" s="10"/>
+      <c r="EY45" s="10"/>
+      <c r="EZ45" s="10"/>
+      <c r="FA45" s="10"/>
+      <c r="FB45" s="10"/>
+      <c r="FC45" s="10"/>
+      <c r="FD45" s="10"/>
+      <c r="FE45" s="10"/>
+      <c r="FF45" s="10"/>
+      <c r="FG45" s="10"/>
+      <c r="FH45" s="10"/>
+      <c r="FI45" s="10"/>
+      <c r="FJ45" s="10"/>
+      <c r="FK45" s="10"/>
+      <c r="FL45" s="10"/>
+      <c r="FM45" s="10"/>
+      <c r="FN45" s="10"/>
+      <c r="FO45" s="10"/>
+      <c r="FP45" s="10"/>
+      <c r="FQ45" s="10"/>
+      <c r="FR45" s="10"/>
+      <c r="FS45" s="10"/>
+      <c r="FT45" s="10"/>
+      <c r="FU45" s="10"/>
+      <c r="FV45" s="10"/>
+      <c r="FW45" s="10"/>
+      <c r="FX45" s="10"/>
+      <c r="FY45" s="10"/>
+      <c r="FZ45" s="10"/>
+      <c r="GA45" s="10"/>
+      <c r="GB45" s="10"/>
+      <c r="GC45" s="10"/>
+      <c r="GD45" s="10"/>
+      <c r="GE45" s="10"/>
+      <c r="GF45" s="10"/>
+      <c r="GG45" s="10"/>
+      <c r="GH45" s="10"/>
+      <c r="GI45" s="10"/>
+      <c r="GJ45" s="10"/>
+      <c r="GK45" s="10"/>
+      <c r="GL45" s="10"/>
+      <c r="GM45" s="10"/>
+      <c r="GN45" s="10"/>
+      <c r="GO45" s="10"/>
+      <c r="GP45" s="10"/>
+      <c r="GQ45" s="10"/>
+      <c r="GR45" s="10"/>
+      <c r="GS45" s="10"/>
+      <c r="GT45" s="10"/>
+      <c r="GU45" s="10"/>
+      <c r="GV45" s="10"/>
+      <c r="GW45" s="10"/>
+      <c r="GX45" s="10"/>
+      <c r="GY45" s="10"/>
+      <c r="GZ45" s="10"/>
+      <c r="HA45" s="10"/>
+      <c r="HB45" s="10"/>
+      <c r="HC45" s="10"/>
+      <c r="HD45" s="10"/>
+      <c r="HE45" s="10"/>
+      <c r="HF45" s="10"/>
+      <c r="HG45" s="10"/>
+      <c r="HH45" s="10"/>
+      <c r="HI45" s="10"/>
+      <c r="HJ45" s="10"/>
+      <c r="HK45" s="10"/>
+      <c r="HL45" s="10"/>
+      <c r="HM45" s="10"/>
+      <c r="HN45" s="10"/>
+      <c r="HO45" s="10"/>
+      <c r="HP45" s="10"/>
+      <c r="HQ45" s="10"/>
+      <c r="HR45" s="10"/>
+      <c r="HS45" s="10"/>
+      <c r="HT45" s="10"/>
+      <c r="HU45" s="10"/>
+      <c r="HV45" s="10"/>
+      <c r="HW45" s="10"/>
+      <c r="HX45" s="10"/>
+      <c r="HY45" s="10"/>
+      <c r="HZ45" s="10"/>
+      <c r="IA45" s="10"/>
+      <c r="IB45" s="10"/>
+      <c r="IC45" s="10"/>
+      <c r="ID45" s="10"/>
+      <c r="IE45" s="10"/>
+      <c r="IF45" s="10"/>
+      <c r="IG45" s="10"/>
+      <c r="IH45" s="10"/>
+      <c r="II45" s="10"/>
+      <c r="IJ45" s="10"/>
+      <c r="IK45" s="10"/>
+      <c r="IL45" s="10"/>
+      <c r="IM45" s="10"/>
+      <c r="IN45" s="10"/>
+      <c r="IO45" s="10"/>
+      <c r="IP45" s="10"/>
+      <c r="IQ45" s="10"/>
+      <c r="IR45" s="10"/>
+      <c r="IS45" s="10"/>
+      <c r="IT45" s="10"/>
+      <c r="IU45" s="10"/>
+      <c r="IV45" s="10"/>
+      <c r="IW45" s="10"/>
+      <c r="IX45" s="10"/>
+      <c r="IY45" s="10"/>
+      <c r="IZ45" s="10"/>
+      <c r="JA45" s="10"/>
+      <c r="JB45" s="10"/>
+      <c r="JC45" s="10"/>
+      <c r="JD45" s="10"/>
+      <c r="JE45" s="10"/>
+      <c r="JF45" s="10"/>
+      <c r="JG45" s="10"/>
+      <c r="JH45" s="10"/>
+      <c r="JI45" s="10"/>
+      <c r="JJ45" s="10"/>
+      <c r="JK45" s="10"/>
+      <c r="JL45" s="10"/>
+      <c r="JM45" s="10"/>
+      <c r="JN45" s="10"/>
+      <c r="JO45" s="10"/>
+      <c r="JP45" s="10"/>
+      <c r="JQ45" s="10"/>
+      <c r="JR45" s="10"/>
+      <c r="JS45" s="10"/>
+      <c r="JT45" s="10"/>
+      <c r="JU45" s="10"/>
+      <c r="JV45" s="10"/>
+      <c r="JW45" s="10"/>
+      <c r="JX45" s="10"/>
+      <c r="JY45" s="10"/>
+      <c r="JZ45" s="10"/>
+      <c r="KA45" s="10"/>
+      <c r="KB45" s="10"/>
+      <c r="KC45" s="10"/>
+      <c r="KD45" s="10"/>
+      <c r="KE45" s="10"/>
+      <c r="KF45" s="10"/>
+      <c r="KG45" s="10"/>
+      <c r="KH45" s="10"/>
+      <c r="KI45" s="10"/>
+      <c r="KJ45" s="10"/>
+      <c r="KK45" s="10"/>
+      <c r="KL45" s="10"/>
+      <c r="KM45" s="10"/>
+      <c r="KN45" s="10"/>
+      <c r="KO45" s="10"/>
+      <c r="KP45" s="10"/>
+      <c r="KQ45" s="10"/>
+      <c r="KR45" s="10"/>
+      <c r="KS45" s="10"/>
+      <c r="KT45" s="10"/>
+      <c r="KU45" s="10"/>
+      <c r="KV45" s="10"/>
+      <c r="KW45" s="10"/>
+      <c r="KX45" s="10"/>
+      <c r="KY45" s="10"/>
+      <c r="KZ45" s="10"/>
+      <c r="LA45" s="10"/>
+      <c r="LB45" s="10"/>
+      <c r="LC45" s="10"/>
+      <c r="LD45" s="10"/>
+      <c r="LE45" s="10"/>
+      <c r="LF45" s="10"/>
+      <c r="LG45" s="10"/>
+      <c r="LH45" s="10"/>
+      <c r="LI45" s="10"/>
+      <c r="LJ45" s="10"/>
+      <c r="LK45" s="10"/>
+      <c r="LL45" s="10"/>
+      <c r="LM45" s="10"/>
+      <c r="LN45" s="10"/>
+      <c r="LO45" s="10"/>
+      <c r="LP45" s="10"/>
+      <c r="LQ45" s="10"/>
+      <c r="LR45" s="10"/>
+      <c r="LS45" s="10"/>
+      <c r="LT45" s="10"/>
+      <c r="LU45" s="10"/>
+      <c r="LV45" s="10"/>
+      <c r="LW45" s="10"/>
+      <c r="LX45" s="10"/>
+      <c r="LY45" s="10"/>
+      <c r="LZ45" s="10"/>
+      <c r="MA45" s="10"/>
+      <c r="MB45" s="10"/>
+      <c r="MC45" s="10"/>
+      <c r="MD45" s="10"/>
+      <c r="ME45" s="10"/>
+      <c r="MF45" s="10"/>
+      <c r="MG45" s="10"/>
+      <c r="MH45" s="10"/>
+      <c r="MI45" s="10"/>
+      <c r="MJ45" s="10"/>
+      <c r="MK45" s="10"/>
+      <c r="ML45" s="10"/>
+      <c r="MM45" s="10"/>
+      <c r="MN45" s="10"/>
+      <c r="MO45" s="10"/>
+      <c r="MP45" s="10"/>
+      <c r="MQ45" s="10"/>
+      <c r="MR45" s="10"/>
+      <c r="MS45" s="10"/>
+      <c r="MT45" s="10"/>
+      <c r="MU45" s="10"/>
+      <c r="MV45" s="10"/>
+      <c r="MW45" s="10"/>
+      <c r="MX45" s="10"/>
+      <c r="MY45" s="10"/>
+      <c r="MZ45" s="10"/>
+      <c r="NA45" s="10"/>
+      <c r="NB45" s="10"/>
+      <c r="NC45" s="10"/>
+      <c r="ND45" s="10"/>
+      <c r="NE45" s="10"/>
+      <c r="NF45" s="10"/>
+      <c r="NG45" s="10"/>
+      <c r="NH45" s="10"/>
+      <c r="NI45" s="10"/>
+      <c r="NJ45" s="10"/>
+      <c r="NK45" s="10"/>
+      <c r="NL45" s="10"/>
+      <c r="NM45" s="10"/>
+      <c r="NN45" s="10"/>
+      <c r="NO45" s="10"/>
+      <c r="NP45" s="10"/>
+      <c r="NQ45" s="10"/>
+      <c r="NR45" s="10"/>
+      <c r="NS45" s="10"/>
+      <c r="NT45" s="10"/>
+      <c r="NU45" s="10"/>
+      <c r="NV45" s="10"/>
+      <c r="NW45" s="10"/>
+      <c r="NX45" s="10"/>
+      <c r="NY45" s="10"/>
+      <c r="NZ45" s="10"/>
+      <c r="OA45" s="10"/>
+      <c r="OB45" s="10"/>
+      <c r="OC45" s="10"/>
+      <c r="OD45" s="10"/>
+      <c r="OE45" s="10"/>
+      <c r="OF45" s="10"/>
+      <c r="OG45" s="10"/>
+      <c r="OH45" s="10"/>
+      <c r="OI45" s="10"/>
+      <c r="OJ45" s="10"/>
+      <c r="OK45" s="10"/>
+      <c r="OL45" s="10"/>
+      <c r="OM45" s="10"/>
+      <c r="ON45" s="10"/>
+      <c r="OO45" s="10"/>
+      <c r="OP45" s="10"/>
+      <c r="OQ45" s="10"/>
+      <c r="OR45" s="10"/>
+      <c r="OS45" s="10"/>
+      <c r="OT45" s="10"/>
+      <c r="OU45" s="10"/>
+      <c r="OV45" s="10"/>
+      <c r="OW45" s="10"/>
+      <c r="OX45" s="10"/>
+      <c r="OY45" s="10"/>
+      <c r="OZ45" s="10"/>
+      <c r="PA45" s="10"/>
+      <c r="PB45" s="10"/>
+      <c r="PC45" s="10"/>
+      <c r="PD45" s="10"/>
+      <c r="PE45" s="10"/>
+      <c r="PF45" s="10"/>
+      <c r="PG45" s="10"/>
+      <c r="PH45" s="10"/>
+      <c r="PI45" s="10"/>
+      <c r="PJ45" s="10"/>
+      <c r="PK45" s="10"/>
+      <c r="PL45" s="10"/>
+      <c r="PM45" s="10"/>
+      <c r="PN45" s="10"/>
+      <c r="PO45" s="10"/>
+      <c r="PP45" s="10"/>
+      <c r="PQ45" s="10"/>
+      <c r="PR45" s="10"/>
+      <c r="PS45" s="10"/>
+      <c r="PT45" s="10"/>
+      <c r="PU45" s="10"/>
+      <c r="PV45" s="10"/>
+      <c r="PW45" s="10"/>
+      <c r="PX45" s="10"/>
+      <c r="PY45" s="10"/>
+      <c r="PZ45" s="10"/>
+      <c r="QA45" s="10"/>
+      <c r="QB45" s="10"/>
+      <c r="QC45" s="10"/>
+      <c r="QD45" s="10"/>
+      <c r="QE45" s="10"/>
+      <c r="QF45" s="10"/>
+      <c r="QG45" s="10"/>
+      <c r="QH45" s="10"/>
+      <c r="QI45" s="10"/>
+      <c r="QJ45" s="10"/>
+      <c r="QK45" s="10"/>
+      <c r="QL45" s="10"/>
+      <c r="QM45" s="10"/>
+      <c r="QN45" s="10"/>
+      <c r="QO45" s="10"/>
+      <c r="QP45" s="10"/>
+      <c r="QQ45" s="10"/>
+      <c r="QR45" s="10"/>
+      <c r="QS45" s="10"/>
+      <c r="QT45" s="10"/>
+      <c r="QU45" s="10"/>
+      <c r="QV45" s="10"/>
+      <c r="QW45" s="10"/>
+      <c r="QX45" s="10"/>
+      <c r="QY45" s="10"/>
+      <c r="QZ45" s="10"/>
+      <c r="RA45" s="10"/>
+      <c r="RB45" s="10"/>
+      <c r="RC45" s="10"/>
+      <c r="RD45" s="10"/>
+      <c r="RE45" s="10"/>
+      <c r="RF45" s="10"/>
+      <c r="RG45" s="10"/>
+      <c r="RH45" s="10"/>
+      <c r="RI45" s="10"/>
+      <c r="RJ45" s="10"/>
+      <c r="RK45" s="10"/>
+      <c r="RL45" s="10"/>
+      <c r="RM45" s="10"/>
+      <c r="RN45" s="10"/>
+      <c r="RO45" s="10"/>
+      <c r="RP45" s="10"/>
+      <c r="RQ45" s="10"/>
+      <c r="RR45" s="10"/>
+      <c r="RS45" s="10"/>
+      <c r="RT45" s="10"/>
+      <c r="RU45" s="10"/>
+      <c r="RV45" s="10"/>
+      <c r="RW45" s="10"/>
+      <c r="RX45" s="10"/>
+      <c r="RY45" s="10"/>
+      <c r="RZ45" s="10"/>
+      <c r="SA45" s="10"/>
+      <c r="SB45" s="10"/>
+      <c r="SC45" s="10"/>
+      <c r="SD45" s="10"/>
+      <c r="SE45" s="10"/>
+      <c r="SF45" s="10"/>
+      <c r="SG45" s="10"/>
+      <c r="SH45" s="10"/>
+      <c r="SI45" s="10"/>
+      <c r="SJ45" s="10"/>
+      <c r="SK45" s="10"/>
+      <c r="SL45" s="10"/>
+      <c r="SM45" s="10"/>
+      <c r="SN45" s="10"/>
+      <c r="SO45" s="10"/>
+      <c r="SP45" s="10"/>
+      <c r="SQ45" s="10"/>
+      <c r="SR45" s="10"/>
+      <c r="SS45" s="10"/>
+      <c r="ST45" s="10"/>
+      <c r="SU45" s="10"/>
+      <c r="SV45" s="10"/>
+      <c r="SW45" s="10"/>
+      <c r="SX45" s="10"/>
+      <c r="SY45" s="10"/>
+      <c r="SZ45" s="10"/>
+      <c r="TA45" s="10"/>
+      <c r="TB45" s="10"/>
+      <c r="TC45" s="10"/>
+      <c r="TD45" s="10"/>
+      <c r="TE45" s="10"/>
+      <c r="TF45" s="10"/>
+      <c r="TG45" s="10"/>
+      <c r="TH45" s="10"/>
+      <c r="TI45" s="10"/>
+      <c r="TJ45" s="10"/>
+      <c r="TK45" s="10"/>
+      <c r="TL45" s="10"/>
+      <c r="TM45" s="10"/>
+      <c r="TN45" s="10"/>
+      <c r="TO45" s="10"/>
+      <c r="TP45" s="10"/>
+      <c r="TQ45" s="10"/>
+      <c r="TR45" s="10"/>
+      <c r="TS45" s="10"/>
+      <c r="TT45" s="10"/>
+      <c r="TU45" s="10"/>
+      <c r="TV45" s="10"/>
+      <c r="TW45" s="10"/>
+      <c r="TX45" s="10"/>
+      <c r="TY45" s="10"/>
+      <c r="TZ45" s="10"/>
+      <c r="UA45" s="10"/>
+      <c r="UB45" s="10"/>
+      <c r="UC45" s="10"/>
+      <c r="UD45" s="10"/>
+      <c r="UE45" s="10"/>
+      <c r="UF45" s="10"/>
+      <c r="UG45" s="10"/>
+      <c r="UH45" s="10"/>
+      <c r="UI45" s="10"/>
+      <c r="UJ45" s="10"/>
+      <c r="UK45" s="10"/>
+      <c r="UL45" s="10"/>
+      <c r="UM45" s="10"/>
+      <c r="UN45" s="10"/>
+      <c r="UO45" s="10"/>
+      <c r="UP45" s="10"/>
+      <c r="UQ45" s="10"/>
+      <c r="UR45" s="10"/>
+      <c r="US45" s="10"/>
+      <c r="UT45" s="10"/>
+      <c r="UU45" s="10"/>
+      <c r="UV45" s="10"/>
+      <c r="UW45" s="10"/>
+      <c r="UX45" s="10"/>
+      <c r="UY45" s="10"/>
+      <c r="UZ45" s="10"/>
+      <c r="VA45" s="10"/>
+      <c r="VB45" s="10"/>
+      <c r="VC45" s="10"/>
+      <c r="VD45" s="10"/>
+      <c r="VE45" s="10"/>
+      <c r="VF45" s="10"/>
+      <c r="VG45" s="10"/>
+      <c r="VH45" s="10"/>
+      <c r="VI45" s="10"/>
+      <c r="VJ45" s="10"/>
+      <c r="VK45" s="10"/>
+      <c r="VL45" s="10"/>
+      <c r="VM45" s="10"/>
+      <c r="VN45" s="10"/>
+      <c r="VO45" s="10"/>
+      <c r="VP45" s="10"/>
+      <c r="VQ45" s="10"/>
+      <c r="VR45" s="10"/>
+      <c r="VS45" s="10"/>
+      <c r="VT45" s="10"/>
+      <c r="VU45" s="10"/>
+      <c r="VV45" s="10"/>
+      <c r="VW45" s="10"/>
+      <c r="VX45" s="10"/>
+      <c r="VY45" s="10"/>
+      <c r="VZ45" s="10"/>
+      <c r="WA45" s="10"/>
+      <c r="WB45" s="10"/>
+      <c r="WC45" s="10"/>
+      <c r="WD45" s="10"/>
+      <c r="WE45" s="10"/>
+      <c r="WF45" s="10"/>
+      <c r="WG45" s="10"/>
+      <c r="WH45" s="10"/>
+      <c r="WI45" s="10"/>
+      <c r="WJ45" s="10"/>
+      <c r="WK45" s="10"/>
+      <c r="WL45" s="10"/>
+      <c r="WM45" s="10"/>
+      <c r="WN45" s="10"/>
+      <c r="WO45" s="10"/>
+      <c r="WP45" s="10"/>
+      <c r="WQ45" s="10"/>
+      <c r="WR45" s="10"/>
+      <c r="WS45" s="10"/>
+      <c r="WT45" s="10"/>
+      <c r="WU45" s="10"/>
+      <c r="WV45" s="10"/>
+      <c r="WW45" s="10"/>
+      <c r="WX45" s="10"/>
+      <c r="WY45" s="10"/>
+      <c r="WZ45" s="10"/>
+      <c r="XA45" s="10"/>
+      <c r="XB45" s="10"/>
+      <c r="XC45" s="10"/>
+      <c r="XD45" s="10"/>
+      <c r="XE45" s="10"/>
+      <c r="XF45" s="10"/>
+      <c r="XG45" s="10"/>
+      <c r="XH45" s="10"/>
+      <c r="XI45" s="10"/>
+      <c r="XJ45" s="10"/>
+      <c r="XK45" s="10"/>
+      <c r="XL45" s="10"/>
+      <c r="XM45" s="10"/>
+      <c r="XN45" s="10"/>
+      <c r="XO45" s="10"/>
+      <c r="XP45" s="10"/>
+      <c r="XQ45" s="10"/>
+      <c r="XR45" s="10"/>
+      <c r="XS45" s="10"/>
+      <c r="XT45" s="10"/>
+      <c r="XU45" s="10"/>
+      <c r="XV45" s="10"/>
+      <c r="XW45" s="10"/>
+      <c r="XX45" s="10"/>
+      <c r="XY45" s="10"/>
+      <c r="XZ45" s="10"/>
+      <c r="YA45" s="10"/>
+      <c r="YB45" s="10"/>
+      <c r="YC45" s="10"/>
+      <c r="YD45" s="10"/>
+      <c r="YE45" s="10"/>
+      <c r="YF45" s="10"/>
+      <c r="YG45" s="10"/>
+      <c r="YH45" s="10"/>
+      <c r="YI45" s="10"/>
+      <c r="YJ45" s="10"/>
+      <c r="YK45" s="10"/>
+      <c r="YL45" s="10"/>
+      <c r="YM45" s="10"/>
+      <c r="YN45" s="10"/>
+      <c r="YO45" s="10"/>
+      <c r="YP45" s="10"/>
+      <c r="YQ45" s="10"/>
+      <c r="YR45" s="10"/>
+      <c r="YS45" s="10"/>
+      <c r="YT45" s="10"/>
+      <c r="YU45" s="10"/>
+      <c r="YV45" s="10"/>
+      <c r="YW45" s="10"/>
+      <c r="YX45" s="10"/>
+      <c r="YY45" s="10"/>
+      <c r="YZ45" s="10"/>
+      <c r="ZA45" s="10"/>
+      <c r="ZB45" s="10"/>
+      <c r="ZC45" s="10"/>
+      <c r="ZD45" s="10"/>
+      <c r="ZE45" s="10"/>
+      <c r="ZF45" s="10"/>
+      <c r="ZG45" s="10"/>
+      <c r="ZH45" s="10"/>
+      <c r="ZI45" s="10"/>
+      <c r="ZJ45" s="10"/>
+      <c r="ZK45" s="10"/>
+      <c r="ZL45" s="10"/>
+      <c r="ZM45" s="10"/>
+      <c r="ZN45" s="10"/>
+      <c r="ZO45" s="10"/>
+      <c r="ZP45" s="10"/>
+      <c r="ZQ45" s="10"/>
+      <c r="ZR45" s="10"/>
+      <c r="ZS45" s="10"/>
+      <c r="ZT45" s="10"/>
+      <c r="ZU45" s="10"/>
+      <c r="ZV45" s="10"/>
+      <c r="ZW45" s="10"/>
+      <c r="ZX45" s="10"/>
+      <c r="ZY45" s="10"/>
+      <c r="ZZ45" s="10"/>
+      <c r="AAA45" s="10"/>
+      <c r="AAB45" s="10"/>
+      <c r="AAC45" s="10"/>
+      <c r="AAD45" s="10"/>
+      <c r="AAE45" s="10"/>
+      <c r="AAF45" s="10"/>
+      <c r="AAG45" s="10"/>
+      <c r="AAH45" s="10"/>
+      <c r="AAI45" s="10"/>
+      <c r="AAJ45" s="10"/>
+      <c r="AAK45" s="10"/>
+      <c r="AAL45" s="10"/>
+      <c r="AAM45" s="10"/>
+      <c r="AAN45" s="10"/>
+      <c r="AAO45" s="10"/>
+      <c r="AAP45" s="10"/>
+      <c r="AAQ45" s="10"/>
+      <c r="AAR45" s="10"/>
+      <c r="AAS45" s="10"/>
+      <c r="AAT45" s="10"/>
+      <c r="AAU45" s="10"/>
+      <c r="AAV45" s="10"/>
+      <c r="AAW45" s="10"/>
+      <c r="AAX45" s="10"/>
+      <c r="AAY45" s="10"/>
+      <c r="AAZ45" s="10"/>
+      <c r="ABA45" s="10"/>
+      <c r="ABB45" s="10"/>
+      <c r="ABC45" s="10"/>
+      <c r="ABD45" s="10"/>
+      <c r="ABE45" s="10"/>
+      <c r="ABF45" s="10"/>
+      <c r="ABG45" s="10"/>
+      <c r="ABH45" s="10"/>
+      <c r="ABI45" s="10"/>
+      <c r="ABJ45" s="10"/>
+      <c r="ABK45" s="10"/>
+      <c r="ABL45" s="10"/>
+      <c r="ABM45" s="10"/>
+      <c r="ABN45" s="10"/>
+      <c r="ABO45" s="10"/>
+      <c r="ABP45" s="10"/>
+      <c r="ABQ45" s="10"/>
+      <c r="ABR45" s="10"/>
+      <c r="ABS45" s="10"/>
+      <c r="ABT45" s="10"/>
+      <c r="ABU45" s="10"/>
+      <c r="ABV45" s="10"/>
+      <c r="ABW45" s="10"/>
+      <c r="ABX45" s="10"/>
+      <c r="ABY45" s="10"/>
+      <c r="ABZ45" s="10"/>
+      <c r="ACA45" s="10"/>
+      <c r="ACB45" s="10"/>
+      <c r="ACC45" s="10"/>
+      <c r="ACD45" s="10"/>
+      <c r="ACE45" s="10"/>
+      <c r="ACF45" s="10"/>
+      <c r="ACG45" s="10"/>
+      <c r="ACH45" s="10"/>
+      <c r="ACI45" s="10"/>
+      <c r="ACJ45" s="10"/>
+      <c r="ACK45" s="10"/>
+      <c r="ACL45" s="10"/>
+      <c r="ACM45" s="10"/>
+      <c r="ACN45" s="10"/>
+      <c r="ACO45" s="10"/>
+      <c r="ACP45" s="10"/>
+      <c r="ACQ45" s="10"/>
+      <c r="ACR45" s="10"/>
+      <c r="ACS45" s="10"/>
+      <c r="ACT45" s="10"/>
+      <c r="ACU45" s="10"/>
+      <c r="ACV45" s="10"/>
+      <c r="ACW45" s="10"/>
+      <c r="ACX45" s="10"/>
+      <c r="ACY45" s="10"/>
+      <c r="ACZ45" s="10"/>
+      <c r="ADA45" s="10"/>
+      <c r="ADB45" s="10"/>
+      <c r="ADC45" s="10"/>
+      <c r="ADD45" s="10"/>
+      <c r="ADE45" s="10"/>
+      <c r="ADF45" s="10"/>
+      <c r="ADG45" s="10"/>
+      <c r="ADH45" s="10"/>
+      <c r="ADI45" s="10"/>
+      <c r="ADJ45" s="10"/>
+      <c r="ADK45" s="10"/>
+      <c r="ADL45" s="10"/>
+      <c r="ADM45" s="10"/>
+      <c r="ADN45" s="10"/>
+      <c r="ADO45" s="10"/>
+      <c r="ADP45" s="10"/>
+      <c r="ADQ45" s="10"/>
+      <c r="ADR45" s="10"/>
+      <c r="ADS45" s="10"/>
+      <c r="ADT45" s="10"/>
+      <c r="ADU45" s="10"/>
+      <c r="ADV45" s="10"/>
+      <c r="ADW45" s="10"/>
+      <c r="ADX45" s="10"/>
+      <c r="ADY45" s="10"/>
+      <c r="ADZ45" s="10"/>
+      <c r="AEA45" s="10"/>
+      <c r="AEB45" s="10"/>
+      <c r="AEC45" s="10"/>
+      <c r="AED45" s="10"/>
+      <c r="AEE45" s="10"/>
+      <c r="AEF45" s="10"/>
+      <c r="AEG45" s="10"/>
+      <c r="AEH45" s="10"/>
+      <c r="AEI45" s="10"/>
+      <c r="AEJ45" s="10"/>
+      <c r="AEK45" s="10"/>
+      <c r="AEL45" s="10"/>
+      <c r="AEM45" s="10"/>
+      <c r="AEN45" s="10"/>
+      <c r="AEO45" s="10"/>
+      <c r="AEP45" s="10"/>
+      <c r="AEQ45" s="10"/>
+      <c r="AER45" s="10"/>
+      <c r="AES45" s="10"/>
+      <c r="AET45" s="10"/>
+      <c r="AEU45" s="10"/>
+      <c r="AEV45" s="10"/>
+      <c r="AEW45" s="10"/>
+      <c r="AEX45" s="10"/>
+      <c r="AEY45" s="10"/>
+      <c r="AEZ45" s="10"/>
+      <c r="AFA45" s="10"/>
+      <c r="AFB45" s="10"/>
+      <c r="AFC45" s="10"/>
+      <c r="AFD45" s="10"/>
+      <c r="AFE45" s="10"/>
+      <c r="AFF45" s="10"/>
+      <c r="AFG45" s="10"/>
+      <c r="AFH45" s="10"/>
+      <c r="AFI45" s="10"/>
+      <c r="AFJ45" s="10"/>
+      <c r="AFK45" s="10"/>
+      <c r="AFL45" s="10"/>
+      <c r="AFM45" s="10"/>
+      <c r="AFN45" s="10"/>
+      <c r="AFO45" s="10"/>
+      <c r="AFP45" s="10"/>
+      <c r="AFQ45" s="10"/>
+      <c r="AFR45" s="10"/>
+      <c r="AFS45" s="10"/>
+      <c r="AFT45" s="10"/>
+      <c r="AFU45" s="10"/>
+      <c r="AFV45" s="10"/>
+      <c r="AFW45" s="10"/>
+      <c r="AFX45" s="10"/>
+      <c r="AFY45" s="10"/>
+      <c r="AFZ45" s="10"/>
+      <c r="AGA45" s="10"/>
+      <c r="AGB45" s="10"/>
+      <c r="AGC45" s="10"/>
+      <c r="AGD45" s="10"/>
+      <c r="AGE45" s="10"/>
+      <c r="AGF45" s="10"/>
+      <c r="AGG45" s="10"/>
+      <c r="AGH45" s="10"/>
+      <c r="AGI45" s="10"/>
+      <c r="AGJ45" s="10"/>
+      <c r="AGK45" s="10"/>
+      <c r="AGL45" s="10"/>
+      <c r="AGM45" s="10"/>
+      <c r="AGN45" s="10"/>
+      <c r="AGO45" s="10"/>
+      <c r="AGP45" s="10"/>
+      <c r="AGQ45" s="10"/>
+      <c r="AGR45" s="10"/>
+      <c r="AGS45" s="10"/>
+      <c r="AGT45" s="10"/>
+      <c r="AGU45" s="10"/>
+      <c r="AGV45" s="10"/>
+      <c r="AGW45" s="10"/>
+      <c r="AGX45" s="10"/>
+      <c r="AGY45" s="10"/>
+      <c r="AGZ45" s="10"/>
+      <c r="AHA45" s="10"/>
+      <c r="AHB45" s="10"/>
+      <c r="AHC45" s="10"/>
+      <c r="AHD45" s="10"/>
+      <c r="AHE45" s="10"/>
+      <c r="AHF45" s="10"/>
+      <c r="AHG45" s="10"/>
+      <c r="AHH45" s="10"/>
+      <c r="AHI45" s="10"/>
+      <c r="AHJ45" s="10"/>
+      <c r="AHK45" s="10"/>
+      <c r="AHL45" s="10"/>
+      <c r="AHM45" s="10"/>
+      <c r="AHN45" s="10"/>
+      <c r="AHO45" s="10"/>
+      <c r="AHP45" s="10"/>
+      <c r="AHQ45" s="10"/>
+      <c r="AHR45" s="10"/>
+      <c r="AHS45" s="10"/>
+      <c r="AHT45" s="10"/>
+      <c r="AHU45" s="10"/>
+      <c r="AHV45" s="10"/>
+      <c r="AHW45" s="10"/>
+      <c r="AHX45" s="10"/>
+      <c r="AHY45" s="10"/>
+      <c r="AHZ45" s="10"/>
+      <c r="AIA45" s="10"/>
+      <c r="AIB45" s="10"/>
+      <c r="AIC45" s="10"/>
+      <c r="AID45" s="10"/>
+      <c r="AIE45" s="10"/>
+      <c r="AIF45" s="10"/>
+      <c r="AIG45" s="10"/>
+      <c r="AIH45" s="10"/>
+      <c r="AII45" s="10"/>
+      <c r="AIJ45" s="10"/>
+      <c r="AIK45" s="10"/>
+      <c r="AIL45" s="10"/>
+      <c r="AIM45" s="10"/>
+      <c r="AIN45" s="10"/>
+      <c r="AIO45" s="10"/>
+      <c r="AIP45" s="10"/>
+      <c r="AIQ45" s="10"/>
+      <c r="AIR45" s="10"/>
+      <c r="AIS45" s="10"/>
+      <c r="AIT45" s="10"/>
+      <c r="AIU45" s="10"/>
+      <c r="AIV45" s="10"/>
+      <c r="AIW45" s="10"/>
+      <c r="AIX45" s="10"/>
+      <c r="AIY45" s="10"/>
+      <c r="AIZ45" s="10"/>
+      <c r="AJA45" s="10"/>
+      <c r="AJB45" s="10"/>
+      <c r="AJC45" s="10"/>
+      <c r="AJD45" s="10"/>
+      <c r="AJE45" s="10"/>
+      <c r="AJF45" s="10"/>
+      <c r="AJG45" s="10"/>
+      <c r="AJH45" s="10"/>
+      <c r="AJI45" s="10"/>
+      <c r="AJJ45" s="10"/>
+      <c r="AJK45" s="10"/>
+      <c r="AJL45" s="10"/>
+      <c r="AJM45" s="10"/>
+      <c r="AJN45" s="10"/>
+      <c r="AJO45" s="10"/>
+      <c r="AJP45" s="10"/>
+      <c r="AJQ45" s="10"/>
+      <c r="AJR45" s="10"/>
+      <c r="AJS45" s="10"/>
+      <c r="AJT45" s="10"/>
+      <c r="AJU45" s="10"/>
+      <c r="AJV45" s="10"/>
+      <c r="AJW45" s="10"/>
+      <c r="AJX45" s="10"/>
+      <c r="AJY45" s="10"/>
+      <c r="AJZ45" s="10"/>
+      <c r="AKA45" s="10"/>
+      <c r="AKB45" s="10"/>
+      <c r="AKC45" s="10"/>
+      <c r="AKD45" s="10"/>
+      <c r="AKE45" s="10"/>
+      <c r="AKF45" s="10"/>
+      <c r="AKG45" s="10"/>
+      <c r="AKH45" s="10"/>
+      <c r="AKI45" s="10"/>
+      <c r="AKJ45" s="10"/>
+      <c r="AKK45" s="10"/>
+      <c r="AKL45" s="10"/>
+      <c r="AKM45" s="10"/>
+      <c r="AKN45" s="10"/>
+      <c r="AKO45" s="10"/>
+      <c r="AKP45" s="10"/>
+      <c r="AKQ45" s="10"/>
+      <c r="AKR45" s="10"/>
+      <c r="AKS45" s="10"/>
+      <c r="AKT45" s="10"/>
+      <c r="AKU45" s="10"/>
+      <c r="AKV45" s="10"/>
+      <c r="AKW45" s="10"/>
+      <c r="AKX45" s="10"/>
+      <c r="AKY45" s="10"/>
+      <c r="AKZ45" s="10"/>
+      <c r="ALA45" s="10"/>
+      <c r="ALB45" s="10"/>
+      <c r="ALC45" s="10"/>
+      <c r="ALD45" s="10"/>
+      <c r="ALE45" s="10"/>
+      <c r="ALF45" s="10"/>
+      <c r="ALG45" s="10"/>
+      <c r="ALH45" s="10"/>
+      <c r="ALI45" s="10"/>
+      <c r="ALJ45" s="10"/>
+      <c r="ALK45" s="10"/>
+      <c r="ALL45" s="10"/>
+      <c r="ALM45" s="10"/>
+      <c r="ALN45" s="10"/>
+      <c r="ALO45" s="10"/>
+      <c r="ALP45" s="10"/>
+      <c r="ALQ45" s="10"/>
+      <c r="ALR45" s="10"/>
+      <c r="ALS45" s="10"/>
+      <c r="ALT45" s="10"/>
+      <c r="ALU45" s="10"/>
+      <c r="ALV45" s="10"/>
+      <c r="ALW45" s="10"/>
+      <c r="ALX45" s="10"/>
+      <c r="ALY45" s="10"/>
+      <c r="ALZ45" s="10"/>
+      <c r="AMA45" s="10"/>
+      <c r="AMB45" s="10"/>
+      <c r="AMC45" s="10"/>
+      <c r="AMD45" s="10"/>
+      <c r="AME45" s="10"/>
+      <c r="AMF45" s="10"/>
+      <c r="AMG45" s="10"/>
+      <c r="AMH45" s="10"/>
+      <c r="AMI45" s="10"/>
+      <c r="AMJ45" s="10"/>
+      <c r="AMK45" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Other_workbooks/fiberVolleyCellList.xlsx
+++ b/Other_workbooks/fiberVolleyCellList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="127">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -331,12 +331,87 @@
   <si>
     <t>2015_01_08_0010</t>
   </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>7,9,11,12,13,15,16,17</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>31,42,101</t>
+  </si>
+  <si>
+    <t>54,118</t>
+  </si>
+  <si>
+    <t>41,75,137</t>
+  </si>
+  <si>
+    <t>88,89,90,125</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>23,26,29,</t>
+  </si>
+  <si>
+    <t>1,28,</t>
+  </si>
+  <si>
+    <t>16,27,28,32,74</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>53,92</t>
+  </si>
+  <si>
+    <t>47,118</t>
+  </si>
+  <si>
+    <t>16,75</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>11,13</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1:20,24</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -362,6 +437,11 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -427,7 +507,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,6 +588,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -857,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -870,7 +959,7 @@
     <col min="5" max="5" width="19.28515625" style="26" customWidth="1"/>
     <col min="6" max="7" width="8.85546875" style="27"/>
     <col min="8" max="8" width="8.85546875" style="25"/>
-    <col min="9" max="9" width="12" style="25" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="25" customWidth="1"/>
     <col min="10" max="10" width="38.7109375" style="26" customWidth="1"/>
     <col min="11" max="1025" width="8.85546875" style="28"/>
     <col min="1026" max="16384" width="8.85546875" style="29"/>
@@ -25981,7 +26070,9 @@
       <c r="H26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -27024,7 +27115,9 @@
       <c r="H27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="J27" s="14"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -29110,8 +29203,8 @@
       <c r="H29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="18" t="s">
-        <v>45</v>
+      <c r="I29" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="22"/>
@@ -30155,7 +30248,9 @@
       <c r="H30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="32" t="s">
+        <v>126</v>
+      </c>
       <c r="J30" s="20"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -33284,7 +33379,9 @@
       <c r="H33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="30" t="s">
+        <v>122</v>
+      </c>
       <c r="J33" s="8"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -38481,7 +38578,7 @@
       <c r="B38" s="13">
         <v>1</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -38499,7 +38596,9 @@
       <c r="H38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="J38" s="14"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -39542,7 +39641,9 @@
       <c r="H39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="31" t="s">
+        <v>119</v>
+      </c>
       <c r="J39" s="14"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -40585,7 +40686,9 @@
       <c r="H40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="31" t="s">
+        <v>120</v>
+      </c>
       <c r="J40" s="14"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -41628,7 +41731,9 @@
       <c r="H41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="J41" s="14"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -42671,7 +42776,9 @@
       <c r="H42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="J42" s="20"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -44739,7 +44846,7 @@
       <c r="B44" s="21">
         <v>3</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -44757,7 +44864,9 @@
       <c r="H44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="18"/>
+      <c r="I44" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="J44" s="20"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -45800,7 +45909,9 @@
       <c r="H45" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="18"/>
+      <c r="I45" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="J45" s="20"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -49972,7 +50083,9 @@
       <c r="H49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="6"/>
+      <c r="I49" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="J49" s="8"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -52058,7 +52171,9 @@
       <c r="H51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I51" s="6"/>
+      <c r="I51" s="30" t="s">
+        <v>112</v>
+      </c>
       <c r="J51" s="8"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -53101,7 +53216,9 @@
       <c r="H52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="J52" s="8"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -55187,7 +55304,9 @@
       <c r="H54" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="12"/>
+      <c r="I54" s="31" t="s">
+        <v>107</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
@@ -56230,7 +56349,9 @@
       <c r="H55" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="12"/>
+      <c r="I55" s="31" t="s">
+        <v>108</v>
+      </c>
       <c r="J55" s="14"/>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
@@ -57273,7 +57394,9 @@
       <c r="H56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I56" s="12"/>
+      <c r="I56" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="J56" s="14"/>
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
@@ -58298,7 +58421,7 @@
       <c r="B57" s="13">
         <v>1</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -58316,7 +58439,9 @@
       <c r="H57" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I57" s="12"/>
+      <c r="I57" s="31" t="s">
+        <v>110</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
@@ -61445,7 +61570,9 @@
       <c r="H60" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="18"/>
+      <c r="I60" s="32" t="s">
+        <v>111</v>
+      </c>
       <c r="J60" s="20"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
@@ -64574,7 +64701,9 @@
       <c r="H63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="6"/>
+      <c r="I63" s="30" t="s">
+        <v>102</v>
+      </c>
       <c r="J63" s="8"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -65617,7 +65746,9 @@
       <c r="H64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="6"/>
+      <c r="I64" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="J64" s="8"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -67685,7 +67816,7 @@
       <c r="B66" s="13">
         <v>2</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="31" t="s">
         <v>98</v>
       </c>
       <c r="D66" s="12" t="s">
@@ -68746,7 +68877,9 @@
       <c r="H67" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I67" s="12"/>
+      <c r="I67" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="J67" s="14"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
@@ -69789,7 +69922,9 @@
       <c r="H68" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="12"/>
+      <c r="I68" s="31" t="s">
+        <v>105</v>
+      </c>
       <c r="J68" s="14"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
@@ -70832,7 +70967,9 @@
       <c r="H69" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="12"/>
+      <c r="I69" s="31" t="s">
+        <v>106</v>
+      </c>
       <c r="J69" s="14"/>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
@@ -71852,7 +71989,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Other_workbooks/fiberVolleyCellList.xlsx
+++ b/Other_workbooks/fiberVolleyCellList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="133">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>68</t>
+  </si>
+  <si>
+    <t>PW = 500us, horiz recording geometry, facilitation of FV on one HS?</t>
+  </si>
+  <si>
+    <t>PW = 500us, horiz recording geometry.</t>
+  </si>
+  <si>
+    <t>PW = 300us, very clean data</t>
+  </si>
+  <si>
+    <t>PW = 300us, clean data</t>
+  </si>
+  <si>
+    <t>PW = 1ms, very weak response</t>
+  </si>
+  <si>
+    <t>PW=250us, very weak response</t>
   </si>
 </sst>
 </file>
@@ -946,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -959,8 +977,8 @@
     <col min="5" max="5" width="19.28515625" style="26" customWidth="1"/>
     <col min="6" max="7" width="8.85546875" style="27"/>
     <col min="8" max="8" width="8.85546875" style="25"/>
-    <col min="9" max="9" width="24.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="70.5703125" style="26" customWidth="1"/>
     <col min="11" max="1025" width="8.85546875" style="28"/>
     <col min="1026" max="16384" width="8.85546875" style="29"/>
   </cols>
@@ -38599,7 +38617,9 @@
       <c r="I38" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J38" s="14"/>
+      <c r="J38" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -39644,7 +39664,9 @@
       <c r="I39" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
@@ -40689,7 +40711,9 @@
       <c r="I40" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="14"/>
+      <c r="J40" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
@@ -41734,7 +41758,9 @@
       <c r="I41" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J41" s="14"/>
+      <c r="J41" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -42779,7 +42805,9 @@
       <c r="I42" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="J42" s="20"/>
+      <c r="J42" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
@@ -43822,7 +43850,9 @@
         <v>68</v>
       </c>
       <c r="I43" s="18"/>
-      <c r="J43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
@@ -44867,7 +44897,9 @@
       <c r="I44" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="J44" s="20"/>
+      <c r="J44" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
@@ -45912,7 +45944,9 @@
       <c r="I45" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
@@ -46955,7 +46989,9 @@
         <v>68</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -47998,7 +48034,9 @@
         <v>68</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -49041,7 +49079,9 @@
         <v>68</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -50086,7 +50126,9 @@
       <c r="I49" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="J49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -51129,7 +51171,9 @@
         <v>68</v>
       </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -52174,7 +52218,9 @@
       <c r="I51" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="J51" s="8"/>
+      <c r="J51" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -53219,7 +53265,9 @@
       <c r="I52" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="J52" s="8"/>
+      <c r="J52" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -54262,7 +54310,9 @@
         <v>68</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -55307,7 +55357,9 @@
       <c r="I54" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J54" s="14"/>
+      <c r="J54" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
@@ -56352,7 +56404,9 @@
       <c r="I55" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="J55" s="14"/>
+      <c r="J55" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
@@ -57397,7 +57451,9 @@
       <c r="I56" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="J56" s="14"/>
+      <c r="J56" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
@@ -58442,7 +58498,9 @@
       <c r="I57" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J57" s="14"/>
+      <c r="J57" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
@@ -59485,7 +59543,9 @@
         <v>68</v>
       </c>
       <c r="I58" s="18"/>
-      <c r="J58" s="20"/>
+      <c r="J58" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
@@ -60528,7 +60588,9 @@
         <v>68</v>
       </c>
       <c r="I59" s="18"/>
-      <c r="J59" s="20"/>
+      <c r="J59" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
@@ -61573,7 +61635,9 @@
       <c r="I60" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J60" s="20"/>
+      <c r="J60" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
@@ -62616,7 +62680,9 @@
         <v>68</v>
       </c>
       <c r="I61" s="18"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
@@ -63659,7 +63725,9 @@
         <v>68</v>
       </c>
       <c r="I62" s="6"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -64704,7 +64772,9 @@
       <c r="I63" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="8"/>
+      <c r="J63" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -65749,7 +65819,9 @@
       <c r="I64" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="8"/>
+      <c r="J64" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -66792,7 +66864,9 @@
         <v>68</v>
       </c>
       <c r="I65" s="6"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
@@ -67835,7 +67909,9 @@
         <v>68</v>
       </c>
       <c r="I66" s="12"/>
-      <c r="J66" s="14"/>
+      <c r="J66" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
@@ -68880,7 +68956,9 @@
       <c r="I67" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J67" s="14"/>
+      <c r="J67" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
@@ -69925,7 +70003,9 @@
       <c r="I68" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J68" s="14"/>
+      <c r="J68" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
@@ -70970,7 +71050,9 @@
       <c r="I69" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="J69" s="14"/>
+      <c r="J69" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
